--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB19777-AA95-4026-BB05-05A79B2C08D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC73D92-356D-4598-94BB-0FBB2655C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="25" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="26" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,9 @@
     <sheet name="Fevereiro24" sheetId="24" r:id="rId24"/>
     <sheet name="Março24" sheetId="26" r:id="rId25"/>
     <sheet name="Abril24" sheetId="27" r:id="rId26"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId27"/>
+    <sheet name="Maio24" sheetId="28" r:id="rId27"/>
+    <sheet name="Junho24" sheetId="29" r:id="rId28"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="170">
   <si>
     <t>Cartões</t>
   </si>
@@ -538,6 +540,30 @@
   <si>
     <t>(17/24)</t>
   </si>
+  <si>
+    <t>(14/18)</t>
+  </si>
+  <si>
+    <t>(18/24)</t>
+  </si>
+  <si>
+    <t>Will Bank</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Parcelamento Serasa</t>
+  </si>
+  <si>
+    <t>Itau</t>
+  </si>
+  <si>
+    <t>(15/18)</t>
+  </si>
+  <si>
+    <t>(19/24)</t>
+  </si>
 </sst>
 </file>
 
@@ -888,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,7 +1035,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,6 +1057,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1445,19 +1476,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="63" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1488,10 +1519,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="67"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1736,13 +1767,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="68">
+      <c r="E15" s="69">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1996,52 +2027,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="K4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="K4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2707,52 +2738,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3432,52 +3463,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4140,54 +4171,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="K4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="K4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -5007,52 +5038,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="K4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="K4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5807,52 +5838,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="L4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="L4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6647,52 +6678,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7449,7 +7480,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FDE995-C67A-4921-9152-CFD72CADAA2D}">
-  <dimension ref="B2:W51"/>
+  <dimension ref="B2:N51"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
@@ -7469,52 +7500,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7720,7 +7751,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -7739,7 +7770,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -7758,7 +7789,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -7777,7 +7808,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -7796,7 +7827,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -7815,7 +7846,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -7834,7 +7865,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -7853,7 +7884,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -7872,7 +7903,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -7891,9 +7922,8 @@
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
-      <c r="W25" s="54"/>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -7911,7 +7941,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -7929,7 +7959,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -7947,7 +7977,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -7965,7 +7995,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -7983,7 +8013,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -8001,7 +8031,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -8282,7 +8312,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC6ACC-3F77-435C-9532-8E83CBFCF243}">
-  <dimension ref="A2:U52"/>
+  <dimension ref="A2:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
@@ -8296,55 +8326,55 @@
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="L5" s="56" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="L5" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8360,12 +8390,12 @@
       <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>200</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="61"/>
       <c r="K6" s="31"/>
-      <c r="L6" s="57"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
@@ -8373,12 +8403,12 @@
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>230</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="61"/>
       <c r="K7" s="31"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
@@ -8389,12 +8419,12 @@
       <c r="G8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="I8" s="61"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="57"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
@@ -8405,12 +8435,12 @@
       <c r="G9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>70.099999999999994</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="61"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="57"/>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -8421,12 +8451,12 @@
       <c r="G10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>17.45</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="61"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="57"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
@@ -8437,12 +8467,12 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>200</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="61"/>
       <c r="K11" s="31"/>
-      <c r="L11" s="57"/>
+      <c r="L11" s="56"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
@@ -8453,12 +8483,12 @@
       <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>93</v>
       </c>
-      <c r="I12" s="62"/>
+      <c r="I12" s="61"/>
       <c r="K12" s="31"/>
-      <c r="L12" s="58"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
@@ -8469,12 +8499,12 @@
       <c r="G13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <v>97.14</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="61"/>
       <c r="K13" s="31"/>
-      <c r="L13" s="58"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
@@ -8485,7 +8515,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="58"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
@@ -8500,7 +8530,7 @@
         <v>50.04</v>
       </c>
       <c r="K15" s="31"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
@@ -8515,9 +8545,9 @@
         <v>46.6</v>
       </c>
       <c r="K16" s="31"/>
-      <c r="L16" s="58"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -8530,9 +8560,9 @@
         <v>29.1</v>
       </c>
       <c r="K17" s="31"/>
-      <c r="L17" s="58"/>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L17" s="57"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -8545,9 +8575,9 @@
         <v>103.7</v>
       </c>
       <c r="K18" s="31"/>
-      <c r="L18" s="58"/>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L18" s="57"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -8560,9 +8590,9 @@
         <v>12.46</v>
       </c>
       <c r="K19" s="31"/>
-      <c r="L19" s="58"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L19" s="57"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -8575,18 +8605,18 @@
         <v>74.73</v>
       </c>
       <c r="K20" s="31"/>
-      <c r="L20" s="58"/>
-    </row>
-    <row r="21" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="3:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28"/>
       <c r="G21" s="24"/>
       <c r="H21" s="41"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="58"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L21" s="57"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -8599,9 +8629,9 @@
         <v>41.57</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="58"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -8614,9 +8644,9 @@
         <v>33</v>
       </c>
       <c r="K23" s="31"/>
-      <c r="L23" s="58"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L23" s="57"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -8630,10 +8660,9 @@
       </c>
       <c r="I24" s="25"/>
       <c r="K24" s="31"/>
-      <c r="L24" s="58"/>
-      <c r="U24" s="54"/>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -8647,9 +8676,9 @@
       </c>
       <c r="I25" s="25"/>
       <c r="K25" s="31"/>
-      <c r="L25" s="58"/>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -8663,9 +8692,9 @@
       </c>
       <c r="I26" s="25"/>
       <c r="K26" s="31"/>
-      <c r="L26" s="58"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -8679,9 +8708,9 @@
       </c>
       <c r="I27" s="25"/>
       <c r="K27" s="31"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -8695,9 +8724,9 @@
       </c>
       <c r="I28" s="25"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="57"/>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -8711,10 +8740,10 @@
       </c>
       <c r="I29" s="25"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="57"/>
+      <c r="L29" s="56"/>
       <c r="S29" s="49"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -8728,9 +8757,9 @@
       </c>
       <c r="I30" s="25"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -8744,9 +8773,9 @@
       </c>
       <c r="I31" s="25"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -8760,7 +8789,7 @@
       </c>
       <c r="I32" s="25"/>
       <c r="K32" s="31"/>
-      <c r="L32" s="57"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
@@ -8776,7 +8805,7 @@
       </c>
       <c r="I33" s="25"/>
       <c r="K33" s="31"/>
-      <c r="L33" s="57"/>
+      <c r="L33" s="56"/>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
@@ -8792,7 +8821,7 @@
       </c>
       <c r="I34" s="25"/>
       <c r="K34" s="31"/>
-      <c r="L34" s="57"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
@@ -8808,50 +8837,50 @@
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="31"/>
-      <c r="L35" s="57"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <v>99.9</v>
       </c>
       <c r="I36" s="25"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="57"/>
+      <c r="L36" s="56"/>
       <c r="R36" s="46"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <v>1198.71</v>
       </c>
       <c r="I37" s="25"/>
       <c r="K37" s="31"/>
-      <c r="L37" s="57"/>
+      <c r="L37" s="56"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="59">
         <v>641.6</v>
       </c>
       <c r="I38" s="25"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="57"/>
+      <c r="L38" s="56"/>
     </row>
     <row r="39" spans="3:18" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C39" s="30"/>
@@ -8861,7 +8890,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="25"/>
       <c r="K39" s="31"/>
-      <c r="L39" s="57"/>
+      <c r="L39" s="56"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
@@ -8873,7 +8902,7 @@
       </c>
       <c r="I40" s="25"/>
       <c r="K40" s="31"/>
-      <c r="L40" s="57"/>
+      <c r="L40" s="56"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
@@ -8881,14 +8910,14 @@
       <c r="H41" s="40"/>
       <c r="I41" s="25"/>
       <c r="K41" s="31"/>
-      <c r="L41" s="57"/>
+      <c r="L41" s="56"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="H42" s="40"/>
       <c r="K42" s="31"/>
-      <c r="L42" s="57"/>
+      <c r="L42" s="56"/>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
@@ -8901,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="31"/>
-      <c r="L43" s="57"/>
+      <c r="L43" s="56"/>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
@@ -8914,7 +8943,7 @@
         <v>5000</v>
       </c>
       <c r="K44" s="31"/>
-      <c r="L44" s="57"/>
+      <c r="L44" s="56"/>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
@@ -8927,7 +8956,7 @@
         <v>4244.5200000000004</v>
       </c>
       <c r="K45" s="31"/>
-      <c r="L45" s="57"/>
+      <c r="L45" s="56"/>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
@@ -8940,43 +8969,43 @@
         <v>755.47999999999956</v>
       </c>
       <c r="K46" s="31"/>
-      <c r="L46" s="57"/>
+      <c r="L46" s="56"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="K47" s="31"/>
-      <c r="L47" s="57"/>
+      <c r="L47" s="56"/>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="31"/>
-      <c r="L48" s="57"/>
+      <c r="L48" s="56"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="K49" s="31"/>
-      <c r="L49" s="57"/>
+      <c r="L49" s="56"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
       <c r="K50" s="31"/>
-      <c r="L50" s="57"/>
+      <c r="L50" s="56"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="30"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="57"/>
+      <c r="L51" s="56"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="30"/>
       <c r="K52" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="L52" s="59">
+      <c r="L52" s="58">
         <f>SUM(L6:L51)</f>
         <v>0</v>
       </c>
@@ -9012,46 +9041,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -9065,7 +9094,7 @@
       <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9075,7 +9104,7 @@
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>188</v>
       </c>
     </row>
@@ -9087,7 +9116,7 @@
       <c r="G8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -9099,7 +9128,7 @@
       <c r="G9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>70.099999999999994</v>
       </c>
     </row>
@@ -9111,7 +9140,7 @@
       <c r="G10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>17.45</v>
       </c>
     </row>
@@ -9123,7 +9152,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
@@ -9133,7 +9162,7 @@
       <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -9143,7 +9172,7 @@
       <c r="G13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -9418,10 +9447,10 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <v>125.92</v>
       </c>
       <c r="I36" s="25"/>
@@ -9430,10 +9459,10 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <v>990.79</v>
       </c>
       <c r="I37" s="25"/>
@@ -9442,10 +9471,10 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="59">
         <v>654.62</v>
       </c>
       <c r="I38" s="25"/>
@@ -9565,52 +9594,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="E4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10141,46 +10170,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10194,7 +10223,7 @@
       <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>200</v>
       </c>
     </row>
@@ -10204,7 +10233,7 @@
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>240</v>
       </c>
     </row>
@@ -10216,7 +10245,7 @@
       <c r="G8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -10228,7 +10257,7 @@
       <c r="G9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>70.099999999999994</v>
       </c>
     </row>
@@ -10240,7 +10269,7 @@
       <c r="G10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>17.45</v>
       </c>
     </row>
@@ -10252,7 +10281,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>100</v>
       </c>
     </row>
@@ -10264,7 +10293,7 @@
       <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>93</v>
       </c>
     </row>
@@ -10274,7 +10303,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -10555,10 +10584,10 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <v>118.74</v>
       </c>
       <c r="I36" s="25"/>
@@ -10567,10 +10596,10 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <v>1487.25</v>
       </c>
       <c r="I37" s="25"/>
@@ -10579,10 +10608,10 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="59">
         <v>98.71</v>
       </c>
       <c r="I38" s="25"/>
@@ -10694,46 +10723,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10747,7 +10776,7 @@
       <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>200</v>
       </c>
     </row>
@@ -10757,7 +10786,7 @@
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>221</v>
       </c>
     </row>
@@ -10769,7 +10798,7 @@
       <c r="G8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -10781,7 +10810,7 @@
       <c r="G9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>70.099999999999994</v>
       </c>
     </row>
@@ -10793,7 +10822,7 @@
       <c r="G10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>17.45</v>
       </c>
     </row>
@@ -10805,7 +10834,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>100</v>
       </c>
     </row>
@@ -10817,7 +10846,7 @@
       <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>74.400000000000006</v>
       </c>
     </row>
@@ -10827,7 +10856,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -11054,10 +11083,10 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <v>164.54</v>
       </c>
       <c r="I36" s="25"/>
@@ -11066,10 +11095,10 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <v>1403.78</v>
       </c>
       <c r="I37" s="25"/>
@@ -11078,10 +11107,10 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="59">
         <v>314.14</v>
       </c>
       <c r="I38" s="25"/>
@@ -11193,46 +11222,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11246,7 +11275,7 @@
       <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>200</v>
       </c>
     </row>
@@ -11256,7 +11285,7 @@
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>222</v>
       </c>
     </row>
@@ -11268,7 +11297,7 @@
       <c r="G8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -11280,7 +11309,7 @@
       <c r="G9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>70.099999999999994</v>
       </c>
     </row>
@@ -11290,7 +11319,7 @@
       <c r="D10" s="30"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="60"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
@@ -11300,7 +11329,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>200</v>
       </c>
     </row>
@@ -11312,7 +11341,7 @@
       <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>83.7</v>
       </c>
     </row>
@@ -11322,7 +11351,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -11537,10 +11566,10 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <v>550.49</v>
       </c>
     </row>
@@ -11548,10 +11577,10 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <v>1307.7</v>
       </c>
     </row>
@@ -11559,10 +11588,10 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="59">
         <v>491.39</v>
       </c>
     </row>
@@ -11685,46 +11714,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -11738,7 +11767,7 @@
       <c r="G7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>200</v>
       </c>
     </row>
@@ -11748,7 +11777,7 @@
       <c r="G8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>235</v>
       </c>
     </row>
@@ -11760,7 +11789,7 @@
       <c r="G9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>230</v>
       </c>
     </row>
@@ -11772,7 +11801,7 @@
       <c r="G10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>70.099999999999994</v>
       </c>
     </row>
@@ -11784,7 +11813,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>300</v>
       </c>
     </row>
@@ -11796,7 +11825,7 @@
       <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -11804,7 +11833,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -11812,7 +11841,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="60"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
@@ -11941,10 +11970,10 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="59">
         <v>274.13</v>
       </c>
     </row>
@@ -11952,10 +11981,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="59">
         <v>1901.79</v>
       </c>
     </row>
@@ -11963,10 +11992,10 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>622.83000000000004</v>
       </c>
     </row>
@@ -12088,46 +12117,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="G4" s="77" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="G4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
@@ -12141,7 +12170,7 @@
       <c r="H6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="59">
         <v>200</v>
       </c>
     </row>
@@ -12151,7 +12180,7 @@
       <c r="H7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="59">
         <v>253</v>
       </c>
     </row>
@@ -12163,7 +12192,7 @@
       <c r="H8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -12175,7 +12204,7 @@
       <c r="H9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="59">
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -12187,7 +12216,7 @@
       <c r="H10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="59">
         <v>100</v>
       </c>
     </row>
@@ -12197,7 +12226,7 @@
       <c r="E11" s="30"/>
       <c r="G11" s="28"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="30"/>
@@ -12205,7 +12234,7 @@
       <c r="E12" s="30"/>
       <c r="G12" s="28"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
@@ -12369,10 +12398,10 @@
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="59">
         <v>318.20999999999998</v>
       </c>
       <c r="O25" s="20"/>
@@ -12381,10 +12410,10 @@
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="59">
         <v>1420.93</v>
       </c>
       <c r="O26" s="20"/>
@@ -12393,10 +12422,10 @@
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="59">
         <v>707</v>
       </c>
       <c r="M27" s="25"/>
@@ -12536,46 +12565,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12589,7 +12618,7 @@
       <c r="G7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>200</v>
       </c>
     </row>
@@ -12599,7 +12628,7 @@
       <c r="G8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -12611,7 +12640,7 @@
       <c r="G9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>230</v>
       </c>
     </row>
@@ -12623,7 +12652,7 @@
       <c r="G10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -12635,7 +12664,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>200</v>
       </c>
     </row>
@@ -12645,7 +12674,7 @@
       <c r="D12" s="30"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -12653,7 +12682,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -12807,10 +12836,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="59">
         <v>342.78</v>
       </c>
     </row>
@@ -12818,10 +12847,10 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>1987.45</v>
       </c>
     </row>
@@ -12829,10 +12858,10 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <v>311.69</v>
       </c>
     </row>
@@ -12938,8 +12967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F540965-6582-4814-859E-F01770D28DE8}">
   <dimension ref="B3:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12952,46 +12981,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13005,7 +13034,7 @@
       <c r="G7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>200</v>
       </c>
     </row>
@@ -13015,7 +13044,7 @@
       <c r="G8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>230</v>
       </c>
     </row>
@@ -13027,7 +13056,7 @@
       <c r="G9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>230</v>
       </c>
     </row>
@@ -13039,7 +13068,7 @@
       <c r="G10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -13051,7 +13080,7 @@
       <c r="G11" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>300</v>
       </c>
     </row>
@@ -13061,7 +13090,7 @@
       <c r="D12" s="30"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -13069,7 +13098,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -13210,10 +13239,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="59">
         <v>268.68</v>
       </c>
     </row>
@@ -13221,10 +13250,10 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>40.14</v>
       </c>
     </row>
@@ -13232,10 +13261,10 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <v>31.88</v>
       </c>
     </row>
@@ -13335,6 +13364,907 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA88D5-4C31-4C00-8CBE-821AF3F83A3B}">
+  <dimension ref="B3:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4575</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="59">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="59">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="P12" s="62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="59"/>
+      <c r="P13" s="63">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="38"/>
+      <c r="P14" s="63">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="P15" s="63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="P16" s="63"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="38">
+        <v>31.95</v>
+      </c>
+      <c r="P17" s="63">
+        <v>115.28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="41"/>
+      <c r="P18" s="63"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="41">
+        <v>29.1</v>
+      </c>
+      <c r="P19" s="63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="41"/>
+      <c r="P20" s="63"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="P21" s="63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="P22" s="63">
+        <v>169.85</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="38">
+        <v>48.12</v>
+      </c>
+      <c r="P23" s="63">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="P24" s="63">
+        <v>37.69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="P25" s="63">
+        <v>50.14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="38">
+        <v>117.95</v>
+      </c>
+      <c r="P26" s="63">
+        <v>132.16999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="59">
+        <v>546.17999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="59">
+        <v>334.26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="59">
+        <v>251.96</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="59">
+        <v>1346.95</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="59">
+        <v>749.93</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="39">
+        <f>SUM(H6:H33)</f>
+        <v>4852.1100000000006</v>
+      </c>
+      <c r="P34" s="20">
+        <f>SUM(P13:P33)</f>
+        <v>696.76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="39">
+        <f>D7</f>
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="39">
+        <v>696.76</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="39">
+        <f>(H34-H40-H39)</f>
+        <v>4155.3500000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="39">
+        <f>H38-H41</f>
+        <v>419.64999999999964</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2100CC23-F670-4D28-AA89-0E84E6051949}">
+  <dimension ref="B2:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="F4" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4300</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="38">
+        <v>148.16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="38">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="38">
+        <v>117.95</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="59">
+        <v>346.63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="59">
+        <v>62.96</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="59">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="59">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="39">
+        <f>SUM(H5:H30)</f>
+        <v>2311.3500000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="39">
+        <f>D6</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="39">
+        <f>(H31-H37-H36)</f>
+        <v>2311.3500000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="39">
+        <f>H35-H38</f>
+        <v>1988.6499999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13373,52 +14303,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="E4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -13988,52 +14918,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="K4" s="72" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="K4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="E5" s="73" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="E5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -14562,52 +15492,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="L4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="L4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -15138,52 +16068,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="L4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="L4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -15808,52 +16738,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="L4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="L4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -16509,52 +17439,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="L4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="L4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17176,52 +18106,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="L4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="L4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC73D92-356D-4598-94BB-0FBB2655C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C496037-A28D-4AAC-A8C2-819F55D615DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="26" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="18" activeTab="27" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,8 @@
     <sheet name="Abril24" sheetId="27" r:id="rId26"/>
     <sheet name="Maio24" sheetId="28" r:id="rId27"/>
     <sheet name="Junho24" sheetId="29" r:id="rId28"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId29"/>
+    <sheet name="Julho24" sheetId="30" r:id="rId29"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="172">
   <si>
     <t>Cartões</t>
   </si>
@@ -563,6 +564,12 @@
   </si>
   <si>
     <t>(19/24)</t>
+  </si>
+  <si>
+    <t>(16/18)</t>
+  </si>
+  <si>
+    <t>(20/24)</t>
   </si>
 </sst>
 </file>
@@ -13367,8 +13374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA88D5-4C31-4C00-8CBE-821AF3F83A3B}">
   <dimension ref="B3:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13428,7 +13435,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>4575</v>
+        <v>4600</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -13700,7 +13707,7 @@
         <v>164</v>
       </c>
       <c r="H28" s="59">
-        <v>334.26</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
@@ -13760,7 +13767,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="39">
         <f>SUM(H6:H33)</f>
-        <v>4852.1100000000006</v>
+        <v>4849.7500000000009</v>
       </c>
       <c r="P34" s="20">
         <f>SUM(P13:P33)</f>
@@ -13791,7 +13798,7 @@
       </c>
       <c r="H38" s="39">
         <f>D7</f>
-        <v>4575</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
@@ -13820,7 +13827,7 @@
       </c>
       <c r="H41" s="39">
         <f>(H34-H40-H39)</f>
-        <v>4155.3500000000004</v>
+        <v>4152.9900000000007</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
@@ -13831,7 +13838,7 @@
       </c>
       <c r="H42" s="39">
         <f>H38-H41</f>
-        <v>419.64999999999964</v>
+        <v>447.00999999999931</v>
       </c>
     </row>
   </sheetData>
@@ -13848,10 +13855,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2100CC23-F670-4D28-AA89-0E84E6051949}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13863,7 +13870,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
@@ -13874,7 +13881,7 @@
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -13883,7 +13890,7 @@
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
@@ -13895,7 +13902,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
@@ -13905,23 +13912,23 @@
       <c r="G5" s="76"/>
       <c r="H5" s="77"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="59">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -13931,7 +13938,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -13942,8 +13949,11 @@
       <c r="H8" s="59">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N8" s="62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -13954,8 +13964,11 @@
       <c r="H9" s="59">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N9" s="63">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -13964,57 +13977,72 @@
         <v>90</v>
       </c>
       <c r="H10" s="59">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="63">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42"/>
       <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N11" s="63">
+        <v>184.38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42"/>
       <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N12" s="63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
       <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N13" s="63"/>
+    </row>
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="24"/>
       <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N14" s="63"/>
+    </row>
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="24"/>
       <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N15" s="63"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28"/>
       <c r="G16" s="24"/>
       <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N16" s="63">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -14026,8 +14054,11 @@
       <c r="H17" s="41">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N17" s="63">
+        <v>234.57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -14039,8 +14070,11 @@
       <c r="H18" s="38">
         <v>257.25</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N18" s="63">
+        <v>73.59</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -14052,8 +14086,9 @@
       <c r="H19" s="38">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N19" s="63"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -14065,8 +14100,9 @@
       <c r="H20" s="38">
         <v>48.12</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N20" s="63"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -14078,8 +14114,9 @@
       <c r="H21" s="38">
         <v>148.16</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N21" s="63"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -14091,8 +14128,9 @@
       <c r="H22" s="38">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N22" s="63"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -14105,7 +14143,7 @@
         <v>117.95</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28"/>
@@ -14113,10 +14151,10 @@
         <v>54</v>
       </c>
       <c r="H24" s="59">
-        <v>346.63</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>398.73</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
@@ -14124,10 +14162,10 @@
         <v>164</v>
       </c>
       <c r="H25" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+        <v>152.75</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
@@ -14135,10 +14173,10 @@
         <v>165</v>
       </c>
       <c r="H26" s="59">
-        <v>62.96</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>203.86</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
@@ -14149,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
@@ -14157,10 +14195,10 @@
         <v>136</v>
       </c>
       <c r="H28" s="59">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>2130.63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28"/>
@@ -14168,26 +14206,30 @@
         <v>135</v>
       </c>
       <c r="H29" s="59">
-        <v>31.88</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="17.25" x14ac:dyDescent="0.4">
+        <v>186.96</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="1"/>
       <c r="G30" s="24"/>
       <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N30" s="20">
+        <f>SUM(N9:N29)</f>
+        <v>796.59</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="G31" s="1"/>
       <c r="H31" s="39">
         <f>SUM(H5:H30)</f>
-        <v>2311.3500000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+        <v>4753.8100000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="H32" s="40"/>
@@ -14211,7 +14253,7 @@
       </c>
       <c r="H35" s="39">
         <f>D6</f>
-        <v>4300</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
@@ -14220,7 +14262,9 @@
       <c r="G36" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <v>796.59</v>
+      </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
@@ -14228,7 +14272,9 @@
       <c r="G37" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>332</v>
+      </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
@@ -14238,7 +14284,7 @@
       </c>
       <c r="H38" s="39">
         <f>(H31-H37-H36)</f>
-        <v>2311.3500000000004</v>
+        <v>3625.2200000000003</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
@@ -14249,7 +14295,7 @@
       </c>
       <c r="H39" s="39">
         <f>H35-H38</f>
-        <v>1988.6499999999996</v>
+        <v>374.77999999999975</v>
       </c>
     </row>
   </sheetData>
@@ -14265,13 +14311,407 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E38B7C-13AE-4DF1-AB9E-6505D84580C6}">
+  <dimension ref="C3:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="38">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="40"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="59">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="G20" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="G21" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" s="38">
+        <v>117.95</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="59">
+        <v>208.99</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="59">
+        <v>62.96</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="59">
+        <v>120.99</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="59">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="39">
+        <f>SUM(I6:I31)</f>
+        <v>2029.94</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="H36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="39">
+        <f>E7</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="H37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="H38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="H39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="39">
+        <f>(I32-I38-I37)</f>
+        <v>2029.94</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="H40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="39">
+        <f>I36-I39</f>
+        <v>1970.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -14892,6 +15332,18 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C496037-A28D-4AAC-A8C2-819F55D615DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F9725-DB23-4700-9743-043C87897D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="18" activeTab="27" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="28" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,9 @@
     <sheet name="Maio24" sheetId="28" r:id="rId27"/>
     <sheet name="Junho24" sheetId="29" r:id="rId28"/>
     <sheet name="Julho24" sheetId="30" r:id="rId29"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId30"/>
+    <sheet name="Agosto24" sheetId="31" r:id="rId30"/>
+    <sheet name="Planilha4" sheetId="32" r:id="rId31"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="174">
   <si>
     <t>Cartões</t>
   </si>
@@ -571,6 +573,12 @@
   <si>
     <t>(20/24)</t>
   </si>
+  <si>
+    <t>(17/18)</t>
+  </si>
+  <si>
+    <t>(21/24)</t>
+  </si>
 </sst>
 </file>
 
@@ -921,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,6 +1078,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1483,19 +1492,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="64" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="66"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1526,10 +1535,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1774,13 +1783,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="69">
+      <c r="E15" s="70">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -2034,52 +2043,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="K4" s="73" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="K4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="74" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2745,52 +2754,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3470,52 +3479,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4178,54 +4187,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="K4" s="73" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="K4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="74" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -5045,52 +5054,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="K4" s="73" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="K4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="74" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5845,52 +5854,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6685,52 +6694,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7507,52 +7516,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -8338,49 +8347,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="L5" s="55" t="s">
         <v>27</v>
       </c>
@@ -9048,46 +9057,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -9601,52 +9610,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="E4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="E4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10177,46 +10186,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10730,46 +10739,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11229,46 +11238,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11721,46 +11730,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="78" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12124,46 +12133,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="G4" s="78" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="G4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
@@ -12572,46 +12581,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="78" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12988,46 +12997,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="78" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13388,46 +13397,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="78" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13855,10 +13864,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2100CC23-F670-4D28-AA89-0E84E6051949}">
-  <dimension ref="B2:N39"/>
+  <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13871,46 +13880,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -13918,7 +13927,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -13927,6 +13936,7 @@
       <c r="H6" s="59">
         <v>290</v>
       </c>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
@@ -13935,8 +13945,9 @@
         <v>31</v>
       </c>
       <c r="H7" s="59">
-        <v>290</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
@@ -13949,6 +13960,7 @@
       <c r="H8" s="59">
         <v>230</v>
       </c>
+      <c r="I8" s="64"/>
       <c r="N8" s="62" t="s">
         <v>71</v>
       </c>
@@ -13964,6 +13976,7 @@
       <c r="H9" s="59">
         <v>75.599999999999994</v>
       </c>
+      <c r="I9" s="64"/>
       <c r="N9" s="63">
         <v>65.900000000000006</v>
       </c>
@@ -13977,8 +13990,9 @@
         <v>90</v>
       </c>
       <c r="H10" s="59">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I10" s="64"/>
       <c r="N10" s="63">
         <v>54.4</v>
       </c>
@@ -14042,7 +14056,7 @@
         <v>108.75</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -14054,11 +14068,12 @@
       <c r="H17" s="41">
         <v>29.1</v>
       </c>
+      <c r="I17" s="64"/>
       <c r="N17" s="63">
         <v>234.57</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -14070,11 +14085,12 @@
       <c r="H18" s="38">
         <v>257.25</v>
       </c>
+      <c r="I18" s="64"/>
       <c r="N18" s="63">
         <v>73.59</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -14086,9 +14102,12 @@
       <c r="H19" s="38">
         <v>96.8</v>
       </c>
-      <c r="N19" s="63"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="64"/>
+      <c r="N19" s="63">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -14100,9 +14119,12 @@
       <c r="H20" s="38">
         <v>48.12</v>
       </c>
-      <c r="N20" s="63"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="64"/>
+      <c r="N20" s="63">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -14114,9 +14136,12 @@
       <c r="H21" s="38">
         <v>148.16</v>
       </c>
-      <c r="N21" s="63"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="64"/>
+      <c r="N21" s="63">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -14128,9 +14153,10 @@
       <c r="H22" s="38">
         <v>97.9</v>
       </c>
+      <c r="I22" s="64"/>
       <c r="N22" s="63"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -14142,8 +14168,10 @@
       <c r="H23" s="38">
         <v>117.95</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="64"/>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28"/>
@@ -14151,10 +14179,11 @@
         <v>54</v>
       </c>
       <c r="H24" s="59">
-        <v>398.73</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+        <v>426.17</v>
+      </c>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
@@ -14164,8 +14193,10 @@
       <c r="H25" s="59">
         <v>152.75</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="64"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
@@ -14173,10 +14204,11 @@
         <v>165</v>
       </c>
       <c r="H26" s="59">
-        <v>203.86</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+        <v>292.76</v>
+      </c>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
@@ -14184,10 +14216,11 @@
         <v>167</v>
       </c>
       <c r="H27" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
@@ -14195,10 +14228,11 @@
         <v>136</v>
       </c>
       <c r="H28" s="59">
-        <v>2130.63</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2247.3200000000002</v>
+      </c>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28"/>
@@ -14206,10 +14240,11 @@
         <v>135</v>
       </c>
       <c r="H29" s="59">
-        <v>186.96</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+        <v>349.36</v>
+      </c>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="3:18" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="1"/>
@@ -14217,19 +14252,19 @@
       <c r="H30" s="47"/>
       <c r="N30" s="20">
         <f>SUM(N9:N29)</f>
-        <v>796.59</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+        <v>916.28000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="G31" s="1"/>
       <c r="H31" s="39">
         <f>SUM(H5:H30)</f>
-        <v>4753.8100000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+        <v>5333.2400000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="H32" s="40"/>
@@ -14253,7 +14288,7 @@
       </c>
       <c r="H35" s="39">
         <f>D6</f>
-        <v>4000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
@@ -14263,7 +14298,7 @@
         <v>71</v>
       </c>
       <c r="H36" s="39">
-        <v>796.59</v>
+        <v>916.28</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
@@ -14273,7 +14308,7 @@
         <v>152</v>
       </c>
       <c r="H37" s="39">
-        <v>332</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
@@ -14284,7 +14319,7 @@
       </c>
       <c r="H38" s="39">
         <f>(H31-H37-H36)</f>
-        <v>3625.2200000000003</v>
+        <v>4030.9600000000009</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
@@ -14295,7 +14330,7 @@
       </c>
       <c r="H39" s="39">
         <f>H35-H38</f>
-        <v>374.77999999999975</v>
+        <v>69.039999999999054</v>
       </c>
     </row>
   </sheetData>
@@ -14307,6 +14342,7 @@
     <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14314,8 +14350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E38B7C-13AE-4DF1-AB9E-6505D84580C6}">
   <dimension ref="C3:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14328,46 +14364,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="G5" s="78" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
@@ -14375,14 +14411,14 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="59">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -14392,7 +14428,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="59">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
@@ -14428,7 +14464,7 @@
         <v>90</v>
       </c>
       <c r="I11" s="59">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -14565,7 +14601,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="59">
-        <v>208.99</v>
+        <v>330.26</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
@@ -14576,7 +14612,7 @@
         <v>164</v>
       </c>
       <c r="I26" s="59">
-        <v>0</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
@@ -14587,7 +14623,7 @@
         <v>165</v>
       </c>
       <c r="I27" s="59">
-        <v>62.96</v>
+        <v>223.94</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
@@ -14598,7 +14634,7 @@
         <v>167</v>
       </c>
       <c r="I28" s="59">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
@@ -14609,7 +14645,7 @@
         <v>136</v>
       </c>
       <c r="I29" s="59">
-        <v>120.99</v>
+        <v>2217.0300000000002</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
@@ -14620,7 +14656,7 @@
         <v>135</v>
       </c>
       <c r="I30" s="59">
-        <v>31.88</v>
+        <v>600.37</v>
       </c>
     </row>
     <row r="31" spans="4:9" ht="17.25" x14ac:dyDescent="0.4">
@@ -14636,7 +14672,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="39">
         <f>SUM(I6:I31)</f>
-        <v>2029.94</v>
+        <v>5219.42</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -14663,7 +14699,7 @@
       </c>
       <c r="I36" s="39">
         <f>E7</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -14672,7 +14708,9 @@
       <c r="H37" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="39">
+        <v>650</v>
+      </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" s="30"/>
@@ -14680,7 +14718,9 @@
       <c r="H38" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="39">
+        <v>151.75</v>
+      </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" s="30"/>
@@ -14690,7 +14730,7 @@
       </c>
       <c r="I39" s="39">
         <f>(I32-I38-I37)</f>
-        <v>2029.94</v>
+        <v>4417.67</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
@@ -14701,7 +14741,7 @@
       </c>
       <c r="I40" s="39">
         <f>I36-I39</f>
-        <v>1970.06</v>
+        <v>582.32999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -14743,52 +14783,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="E4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="E4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -15336,6 +15376,426 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CA31FE-AEB2-43A8-BDDB-D8874A924C2D}">
+  <dimension ref="B3:H40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4500</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="59">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="59">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="38">
+        <v>117.95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="59">
+        <v>291.39999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="59">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="59">
+        <v>51.09</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="59">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="39">
+        <f>SUM(H6:H31)</f>
+        <v>2292.4300000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="39">
+        <f>D7</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="39">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="39">
+        <f>(H32-H38-H37)</f>
+        <v>2238.4300000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="39">
+        <f>H36-H39</f>
+        <v>2261.5699999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D908C1E-E93A-4588-9DE5-64D0D2CA2716}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15370,52 +15830,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="K4" s="73" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="K4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="E5" s="74" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="E5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -15944,52 +16404,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="74" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -16520,52 +16980,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17190,52 +17650,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17891,52 +18351,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -18558,52 +19018,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F9725-DB23-4700-9743-043C87897D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42FD488-FD47-4EF3-8C2E-AFB06BDD96E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="28" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" firstSheet="21" activeTab="31" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,8 +43,9 @@
     <sheet name="Junho24" sheetId="29" r:id="rId28"/>
     <sheet name="Julho24" sheetId="30" r:id="rId29"/>
     <sheet name="Agosto24" sheetId="31" r:id="rId30"/>
-    <sheet name="Planilha4" sheetId="32" r:id="rId31"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId32"/>
+    <sheet name="Setembro24" sheetId="32" r:id="rId31"/>
+    <sheet name="Outubro24" sheetId="33" r:id="rId32"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="179">
   <si>
     <t>Cartões</t>
   </si>
@@ -579,6 +580,21 @@
   <si>
     <t>(21/24)</t>
   </si>
+  <si>
+    <t>Casas Bahia</t>
+  </si>
+  <si>
+    <t>(18/18)</t>
+  </si>
+  <si>
+    <t>(22/24)</t>
+  </si>
+  <si>
+    <t>(23/24)</t>
+  </si>
+  <si>
+    <t>Devolver</t>
+  </si>
 </sst>
 </file>
 
@@ -645,7 +661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,6 +1101,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,19 +1515,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="65" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="67"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1535,10 +1558,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1783,13 +1806,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="70">
+      <c r="E15" s="71">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -2043,52 +2066,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="K4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="K4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2754,52 +2777,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3479,52 +3502,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4187,54 +4210,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="K4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="K4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -5054,52 +5077,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="K4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="K4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5854,52 +5877,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="L4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6694,52 +6717,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7516,52 +7539,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -8347,49 +8370,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="L5" s="55" t="s">
         <v>27</v>
       </c>
@@ -9057,46 +9080,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -9610,52 +9633,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="E4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10186,46 +10209,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10739,46 +10762,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11238,46 +11261,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11730,46 +11753,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="79" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12133,46 +12156,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="G4" s="79" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="G4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
@@ -12581,46 +12604,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="79" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12997,46 +13020,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="79" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13397,46 +13420,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="79" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13880,46 +13903,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -14348,10 +14371,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E38B7C-13AE-4DF1-AB9E-6505D84580C6}">
-  <dimension ref="C3:I40"/>
+  <dimension ref="C3:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14363,49 +14386,49 @@
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="74" t="s">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="79" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="76" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -14420,18 +14443,20 @@
       <c r="I7" s="59">
         <v>281</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="59">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+        <v>305.22000000000003</v>
+      </c>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -14442,8 +14467,9 @@
       <c r="I9" s="59">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -14454,8 +14480,9 @@
       <c r="I10" s="59">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -14466,8 +14493,9 @@
       <c r="I11" s="59">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -14475,7 +14503,7 @@
       <c r="H12" s="42"/>
       <c r="I12" s="59"/>
     </row>
-    <row r="13" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -14483,7 +14511,7 @@
       <c r="H13" s="42"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -14491,7 +14519,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
@@ -14499,7 +14527,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -14507,14 +14535,14 @@
       <c r="H16" s="24"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28"/>
       <c r="H17" s="24"/>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -14526,8 +14554,9 @@
       <c r="I18" s="41">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -14539,8 +14568,9 @@
       <c r="I19" s="38">
         <v>257.25</v>
       </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -14552,8 +14582,9 @@
       <c r="I20" s="38">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -14565,22 +14596,23 @@
       <c r="I21" s="38">
         <v>48.12</v>
       </c>
-    </row>
-    <row r="22" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28"/>
       <c r="H22" s="24"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28"/>
       <c r="H23" s="24"/>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
@@ -14592,8 +14624,9 @@
       <c r="I24" s="38">
         <v>117.95</v>
       </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="65"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28"/>
@@ -14603,8 +14636,9 @@
       <c r="I25" s="59">
         <v>330.26</v>
       </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28"/>
@@ -14614,8 +14648,9 @@
       <c r="I26" s="59">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="65"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="G27" s="28"/>
@@ -14625,8 +14660,9 @@
       <c r="I27" s="59">
         <v>223.94</v>
       </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="65"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="G28" s="28"/>
@@ -14636,8 +14672,9 @@
       <c r="I28" s="59">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="G29" s="28"/>
@@ -14645,10 +14682,11 @@
         <v>136</v>
       </c>
       <c r="I29" s="59">
-        <v>2217.0300000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+        <v>2324.42</v>
+      </c>
+      <c r="J29" s="65"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="G30" s="28"/>
@@ -14656,23 +14694,24 @@
         <v>135</v>
       </c>
       <c r="I30" s="59">
-        <v>600.37</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" ht="17.25" x14ac:dyDescent="0.4">
+        <v>722.66</v>
+      </c>
+      <c r="J30" s="65"/>
+    </row>
+    <row r="31" spans="4:10" ht="17.25" x14ac:dyDescent="0.4">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="G31" s="1"/>
       <c r="H31" s="24"/>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="H32" s="1"/>
       <c r="I32" s="39">
         <f>SUM(I6:I31)</f>
-        <v>5219.42</v>
+        <v>5451.32</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -14730,7 +14769,7 @@
       </c>
       <c r="I39" s="39">
         <f>(I32-I38-I37)</f>
-        <v>4417.67</v>
+        <v>4649.57</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
@@ -14741,7 +14780,7 @@
       </c>
       <c r="I40" s="39">
         <f>I36-I39</f>
-        <v>582.32999999999993</v>
+        <v>350.43000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -14783,52 +14822,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="E4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -15377,10 +15416,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CA31FE-AEB2-43A8-BDDB-D8874A924C2D}">
-  <dimension ref="B3:H40"/>
+  <dimension ref="B3:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15390,77 +15429,80 @@
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="79" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="59">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="59">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -15471,8 +15513,9 @@
       <c r="H9" s="59">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -15483,8 +15526,9 @@
       <c r="H10" s="59">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -15493,10 +15537,10 @@
         <v>90</v>
       </c>
       <c r="H11" s="59">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -15504,7 +15548,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -15512,7 +15556,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="59"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -15520,7 +15564,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="38"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -15528,7 +15572,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -15536,14 +15580,14 @@
       <c r="G16" s="24"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28"/>
       <c r="G17" s="24"/>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -15555,8 +15599,9 @@
       <c r="H18" s="41">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="61"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -15568,8 +15613,9 @@
       <c r="H19" s="38">
         <v>257.25</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -15581,8 +15627,9 @@
       <c r="H20" s="38">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -15594,22 +15641,24 @@
       <c r="H21" s="38">
         <v>48.12</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="61"/>
+      <c r="M21" s="49"/>
+    </row>
+    <row r="22" spans="3:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28"/>
       <c r="G22" s="24"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28"/>
       <c r="G23" s="24"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -15621,8 +15670,9 @@
       <c r="H24" s="38">
         <v>117.95</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
@@ -15630,10 +15680,11 @@
         <v>54</v>
       </c>
       <c r="H25" s="59">
-        <v>291.39999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+        <v>355.98</v>
+      </c>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
@@ -15641,73 +15692,85 @@
         <v>164</v>
       </c>
       <c r="H26" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>499.42</v>
+      </c>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
       <c r="G27" s="60" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H27" s="59">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
       <c r="G28" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H28" s="59">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>346.66</v>
+      </c>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28"/>
       <c r="G29" s="60" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H29" s="59">
-        <v>51.09</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28"/>
       <c r="G30" s="60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H30" s="59">
-        <v>71.02</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="17.25" x14ac:dyDescent="0.4">
+        <v>1720.88</v>
+      </c>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="28"/>
+      <c r="G31" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="59">
+        <v>566.30999999999995</v>
+      </c>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="3:13" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="39">
-        <f>SUM(H6:H31)</f>
-        <v>2292.4300000000003</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
-      <c r="H33" s="40"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="39">
+        <f>SUM(H6:H32)</f>
+        <v>5411.369999999999</v>
+      </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
@@ -15717,58 +15780,65 @@
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="G36" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="39">
-        <f>D7</f>
-        <v>4500</v>
-      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="G37" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="H37" s="39">
+        <f>D7</f>
+        <v>4750</v>
+      </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="G38" s="28" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="H38" s="39">
-        <v>54</v>
+        <v>684.3</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="28" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="H39" s="39">
-        <f>(H32-H38-H37)</f>
-        <v>2238.4300000000003</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="39">
+        <f>(H33-H39-H38)</f>
+        <v>4372.0699999999988</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="39">
-        <f>H36-H39</f>
-        <v>2261.5699999999997</v>
+      <c r="H41" s="39">
+        <f>H37-H40</f>
+        <v>377.9300000000012</v>
       </c>
     </row>
   </sheetData>
@@ -15785,17 +15855,907 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D908C1E-E93A-4588-9DE5-64D0D2CA2716}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4830</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="38">
+        <v>117.95</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="59">
+        <v>253.48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="59">
+        <v>689.18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="59">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="59">
+        <v>508.2</v>
+      </c>
+      <c r="I27" s="65"/>
+      <c r="J27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="59">
+        <v>1717.35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="59">
+        <v>395.33</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="39">
+        <f>SUM(H5:H31)</f>
+        <v>5504.66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="39">
+        <f>D6</f>
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="39">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="39">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="39">
+        <f>(H32-H38-H37)</f>
+        <v>4549.66</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="39">
+        <f>H36-H39</f>
+        <v>280.34000000000015</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FABE6CD-A1E7-4104-97AC-C464452E7B08}">
+  <dimension ref="B2:P40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V22:V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="F4" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4800</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>350</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>290</v>
+      </c>
+      <c r="P7" s="20">
+        <v>27.86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>230</v>
+      </c>
+      <c r="P8" s="20">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="P9" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>300</v>
+      </c>
+      <c r="P10" s="20">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+      <c r="P11" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="P12" s="20">
+        <v>56.76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="38"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="38"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="41"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="P18" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="P19" s="20">
+        <v>28.39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="38">
+        <v>48.12</v>
+      </c>
+      <c r="P20" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="38"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="38">
+        <v>117.95</v>
+      </c>
+      <c r="P22" s="20">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="38"/>
+      <c r="P23" s="20">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="59">
+        <v>163.84</v>
+      </c>
+      <c r="P24" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0</v>
+      </c>
+      <c r="P25" s="20">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="59">
+        <v>92</v>
+      </c>
+      <c r="P26" s="20">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="59">
+        <v>435.71</v>
+      </c>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="59">
+        <v>54</v>
+      </c>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="59">
+        <v>132.09</v>
+      </c>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="59">
+        <v>31.88</v>
+      </c>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="3:16" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="47"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="39">
+        <f>SUM(H5:H31)</f>
+        <v>2675.54</v>
+      </c>
+      <c r="P32" s="20"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="H33" s="40"/>
+      <c r="P33" s="20"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="H34" s="40"/>
+      <c r="P34" s="20"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="39"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="39">
+        <f>D6</f>
+        <v>4800</v>
+      </c>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="39">
+        <v>81.86</v>
+      </c>
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="39">
+        <f>(H32-H38-H37)</f>
+        <v>2593.6799999999998</v>
+      </c>
+      <c r="P39" s="20"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="39">
+        <f>H36-H39</f>
+        <v>2206.3200000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15830,52 +16790,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="K4" s="74" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="K4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="E5" s="75" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="E5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -16404,52 +17364,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="L4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -16980,52 +17940,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="L4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17650,52 +18610,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="L4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -18351,52 +19311,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="L4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -19018,52 +19978,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="L4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42FD488-FD47-4EF3-8C2E-AFB06BDD96E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365FD78-C4C0-48DF-99C0-17BB11C91FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" firstSheet="21" activeTab="31" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="22" activeTab="32" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,8 @@
     <sheet name="Agosto24" sheetId="31" r:id="rId30"/>
     <sheet name="Setembro24" sheetId="32" r:id="rId31"/>
     <sheet name="Outubro24" sheetId="33" r:id="rId32"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId33"/>
+    <sheet name="Novembro24" sheetId="34" r:id="rId33"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="182">
   <si>
     <t>Cartões</t>
   </si>
@@ -593,7 +594,16 @@
     <t>(23/24)</t>
   </si>
   <si>
-    <t>Devolver</t>
+    <t>will</t>
+  </si>
+  <si>
+    <t>(24/24)</t>
+  </si>
+  <si>
+    <t>1ª</t>
+  </si>
+  <si>
+    <t>GS</t>
   </si>
 </sst>
 </file>
@@ -605,7 +615,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,8 +670,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,6 +1134,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1146,6 +1181,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1515,19 +1556,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="66" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1558,10 +1599,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1806,13 +1847,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="71">
+      <c r="E15" s="72">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -2066,52 +2107,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="K4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2777,52 +2818,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3502,52 +3543,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4210,54 +4251,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="K4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -5077,52 +5118,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="K4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5877,52 +5918,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6717,52 +6758,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7539,52 +7580,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -8370,49 +8411,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="L5" s="55" t="s">
         <v>27</v>
       </c>
@@ -9080,46 +9121,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -9633,52 +9674,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="E4" s="76" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="E4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10209,46 +10250,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10762,46 +10803,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11261,46 +11302,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11753,46 +11794,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12156,46 +12197,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="G4" s="80" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="G4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
@@ -12604,46 +12645,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13020,46 +13061,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13420,46 +13461,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13903,46 +13944,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -14387,46 +14428,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="80" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
@@ -14822,52 +14863,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="K3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="E4" s="76" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="E4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -15433,46 +15474,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -15855,10 +15896,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D908C1E-E93A-4588-9DE5-64D0D2CA2716}">
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15870,49 +15911,49 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
@@ -15927,18 +15968,20 @@
       <c r="H6" s="59">
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="59">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>341.43</v>
+      </c>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -15949,8 +15992,9 @@
       <c r="H8" s="59">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -15961,8 +16005,9 @@
       <c r="H9" s="59">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -15974,7 +16019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -15982,7 +16027,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="59"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -15990,7 +16035,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -15998,7 +16043,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -16006,7 +16051,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="38"/>
     </row>
-    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -16014,14 +16059,14 @@
       <c r="G15" s="24"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28"/>
       <c r="G16" s="24"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -16033,8 +16078,9 @@
       <c r="H17" s="41">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -16046,8 +16092,9 @@
       <c r="H18" s="38">
         <v>257.25</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -16059,8 +16106,9 @@
       <c r="H19" s="38">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -16072,15 +16120,16 @@
       <c r="H20" s="38">
         <v>48.12</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="3:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28"/>
       <c r="G21" s="24"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -16092,15 +16141,16 @@
       <c r="H22" s="38">
         <v>117.95</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28"/>
       <c r="G23" s="24"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28"/>
@@ -16108,10 +16158,14 @@
         <v>54</v>
       </c>
       <c r="H24" s="59">
-        <v>253.48</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+        <v>590.58000000000004</v>
+      </c>
+      <c r="I24" s="65"/>
+      <c r="N24">
+        <v>508.2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
@@ -16121,8 +16175,12 @@
       <c r="H25" s="59">
         <v>689.18</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="65"/>
+      <c r="N25">
+        <v>395.33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
@@ -16132,8 +16190,12 @@
       <c r="H26" s="59">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="65"/>
+      <c r="N26">
+        <v>526.03</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
@@ -16144,11 +16206,8 @@
         <v>508.2</v>
       </c>
       <c r="I27" s="65"/>
-      <c r="J27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
@@ -16156,10 +16215,11 @@
         <v>167</v>
       </c>
       <c r="H28" s="59">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28"/>
@@ -16167,10 +16227,11 @@
         <v>136</v>
       </c>
       <c r="H29" s="59">
-        <v>1717.35</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+        <v>1735.35</v>
+      </c>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28"/>
@@ -16180,21 +16241,22 @@
       <c r="H30" s="59">
         <v>395.33</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="1"/>
       <c r="G31" s="24"/>
       <c r="H31" s="47"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="G32" s="1"/>
       <c r="H32" s="39">
         <f>SUM(H5:H31)</f>
-        <v>5504.66</v>
+        <v>5917.1899999999987</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
@@ -16252,7 +16314,7 @@
       </c>
       <c r="H39" s="39">
         <f>(H32-H38-H37)</f>
-        <v>4549.66</v>
+        <v>4962.1899999999987</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
@@ -16263,7 +16325,7 @@
       </c>
       <c r="H40" s="39">
         <f>H36-H39</f>
-        <v>280.34000000000015</v>
+        <v>-132.18999999999869</v>
       </c>
     </row>
   </sheetData>
@@ -16280,10 +16342,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FABE6CD-A1E7-4104-97AC-C464452E7B08}">
-  <dimension ref="B2:P40"/>
+  <dimension ref="B2:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V22:V23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16295,55 +16357,55 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="F4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4800</v>
+        <v>4850</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -16352,24 +16414,41 @@
       <c r="H6" s="59">
         <v>350</v>
       </c>
+      <c r="I6" s="61"/>
+      <c r="O6" s="54" t="s">
+        <v>178</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="59">
-        <v>290</v>
+        <v>368</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="O7" s="20">
+        <v>32.950000000000003</v>
       </c>
       <c r="P7" s="20">
         <v>27.86</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="20">
+        <v>700</v>
+      </c>
+      <c r="R7" s="20"/>
+      <c r="T7" s="20"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -16378,13 +16457,22 @@
         <v>33</v>
       </c>
       <c r="H8" s="59">
-        <v>230</v>
+        <v>105</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="O8" s="20">
+        <v>12</v>
       </c>
       <c r="P8" s="20">
         <v>16.989999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="20">
+        <v>50</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -16395,11 +16483,20 @@
       <c r="H9" s="59">
         <v>75.900000000000006</v>
       </c>
+      <c r="I9" s="61"/>
+      <c r="O9" s="20">
+        <v>22</v>
+      </c>
       <c r="P9" s="20">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="20">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="R9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -16408,78 +16505,109 @@
         <v>90</v>
       </c>
       <c r="H10" s="59">
-        <v>300</v>
+        <v>600</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="O10" s="20">
+        <v>16.989999999999998</v>
       </c>
       <c r="P10" s="20">
         <v>102.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="20">
+        <v>50</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42"/>
       <c r="H11" s="59"/>
+      <c r="O11" s="20">
+        <v>50.65</v>
+      </c>
       <c r="P11" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="20">
+        <v>50</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42"/>
       <c r="H12" s="59"/>
+      <c r="O12" s="20">
+        <v>49.75</v>
+      </c>
       <c r="P12" s="20">
         <v>56.76</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="20">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="T12" s="20"/>
+    </row>
+    <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42"/>
       <c r="H13" s="38"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="24"/>
       <c r="H14" s="38"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="24"/>
       <c r="H15" s="38"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28"/>
       <c r="G16" s="24"/>
       <c r="H16" s="38"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28"/>
       <c r="G17" s="24"/>
       <c r="H17" s="41"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -16491,11 +16619,17 @@
       <c r="H18" s="38">
         <v>257.25</v>
       </c>
+      <c r="O18" s="20">
+        <v>80</v>
+      </c>
       <c r="P18" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="20">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -16507,11 +16641,18 @@
       <c r="H19" s="38">
         <v>96.8</v>
       </c>
+      <c r="O19" s="20">
+        <v>40.54</v>
+      </c>
       <c r="P19" s="20">
         <v>28.39</v>
       </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="20">
+        <v>50</v>
+      </c>
+      <c r="R19" s="20"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -16523,19 +16664,26 @@
       <c r="H20" s="38">
         <v>48.12</v>
       </c>
+      <c r="O20" s="20">
+        <v>29.51</v>
+      </c>
       <c r="P20" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+    </row>
+    <row r="21" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28"/>
       <c r="G21" s="24"/>
       <c r="H21" s="38"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="20"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -16547,21 +16695,31 @@
       <c r="H22" s="38">
         <v>117.95</v>
       </c>
+      <c r="O22" s="20">
+        <v>65.73</v>
+      </c>
       <c r="P22" s="20">
         <v>25.85</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="20"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="38">
+        <v>95</v>
+      </c>
+      <c r="O23" s="20"/>
       <c r="P23" s="20">
         <v>15.15</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="20"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28"/>
@@ -16569,13 +16727,16 @@
         <v>54</v>
       </c>
       <c r="H24" s="59">
-        <v>163.84</v>
-      </c>
+        <v>263.31</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="20">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R24" s="20"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
@@ -16583,13 +16744,16 @@
         <v>164</v>
       </c>
       <c r="H25" s="59">
-        <v>0</v>
-      </c>
+        <v>503.2</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="20">
         <v>18.41</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
@@ -16599,11 +16763,14 @@
       <c r="H26" s="59">
         <v>92</v>
       </c>
+      <c r="I26" s="61"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="20">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R26" s="20"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
@@ -16611,11 +16778,13 @@
         <v>165</v>
       </c>
       <c r="H27" s="59">
-        <v>435.71</v>
-      </c>
+        <v>481.71</v>
+      </c>
+      <c r="I27" s="61"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="20"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
@@ -16625,9 +16794,10 @@
       <c r="H28" s="59">
         <v>54</v>
       </c>
+      <c r="I28" s="61"/>
       <c r="P28" s="20"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28"/>
@@ -16635,11 +16805,12 @@
         <v>136</v>
       </c>
       <c r="H29" s="59">
-        <v>132.09</v>
-      </c>
+        <v>1346.61</v>
+      </c>
+      <c r="I29" s="61"/>
       <c r="P29" s="20"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28"/>
@@ -16647,11 +16818,12 @@
         <v>135</v>
       </c>
       <c r="H30" s="59">
-        <v>31.88</v>
-      </c>
+        <v>1026.67</v>
+      </c>
+      <c r="I30" s="61"/>
       <c r="P30" s="20"/>
     </row>
-    <row r="31" spans="3:16" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:18" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="1"/>
@@ -16659,13 +16831,13 @@
       <c r="H31" s="47"/>
       <c r="P31" s="20"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="G32" s="1"/>
       <c r="H32" s="39">
         <f>SUM(H5:H31)</f>
-        <v>2675.54</v>
+        <v>5881.5199999999995</v>
       </c>
       <c r="P32" s="20"/>
     </row>
@@ -16696,7 +16868,7 @@
       </c>
       <c r="H36" s="39">
         <f>D6</f>
-        <v>4800</v>
+        <v>4850</v>
       </c>
       <c r="P36" s="20"/>
     </row>
@@ -16706,7 +16878,9 @@
       <c r="G37" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>1044.76</v>
+      </c>
       <c r="P37" s="20"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
@@ -16716,7 +16890,7 @@
         <v>152</v>
       </c>
       <c r="H38" s="39">
-        <v>81.86</v>
+        <v>314.86</v>
       </c>
       <c r="P38" s="20"/>
     </row>
@@ -16728,7 +16902,7 @@
       </c>
       <c r="H39" s="39">
         <f>(H32-H38-H37)</f>
-        <v>2593.6799999999998</v>
+        <v>4521.8999999999996</v>
       </c>
       <c r="P39" s="20"/>
     </row>
@@ -16740,7 +16914,7 @@
       </c>
       <c r="H40" s="39">
         <f>H36-H39</f>
-        <v>2206.3200000000002</v>
+        <v>328.10000000000036</v>
       </c>
     </row>
   </sheetData>
@@ -16756,6 +16930,687 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7CCE32-EB20-4929-B375-CC1CD94541EE}">
+  <dimension ref="B3:U42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="17" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="54"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="N4" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="U4" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="57">
+        <v>169.8</v>
+      </c>
+      <c r="O5" s="57">
+        <v>257.25</v>
+      </c>
+      <c r="P5" s="57">
+        <v>174.6</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>235</v>
+      </c>
+      <c r="U5" s="57">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="57">
+        <v>129.12</v>
+      </c>
+      <c r="O6" s="57">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="P6" s="57">
+        <v>617.94000000000005</v>
+      </c>
+      <c r="Q6" s="57"/>
+      <c r="U6" s="57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4200</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="59">
+        <v>350</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="57">
+        <v>458.37</v>
+      </c>
+      <c r="O7" s="57">
+        <v>48.12</v>
+      </c>
+      <c r="P7" s="57">
+        <v>31.88</v>
+      </c>
+      <c r="Q7" s="57"/>
+      <c r="U7" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="59">
+        <v>370</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" s="57">
+        <v>165.1</v>
+      </c>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="U8" s="57">
+        <v>190.45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="59">
+        <v>105</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="57">
+        <v>49.18</v>
+      </c>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="U9" s="57">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="59">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="U10" s="57">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="59">
+        <v>300</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="U11" s="57">
+        <v>79.790000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="U12" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="59"/>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="U13" s="57">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="38"/>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="U14" s="57"/>
+    </row>
+    <row r="15" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="U15" s="57"/>
+    </row>
+    <row r="16" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="U16" s="57"/>
+    </row>
+    <row r="17" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="38"/>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="U17" s="57"/>
+    </row>
+    <row r="18" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="41"/>
+      <c r="M18" t="s">
+        <v>180</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="U18" s="57"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="U19" s="57"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="U20" s="57"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="38">
+        <v>48.12</v>
+      </c>
+      <c r="N21" s="57">
+        <f>SUM(N5:N20)</f>
+        <v>971.56999999999994</v>
+      </c>
+      <c r="O21" s="57">
+        <f t="shared" ref="O21:Q21" si="0">SUM(O5:O20)</f>
+        <v>595.77</v>
+      </c>
+      <c r="P21" s="57">
+        <f t="shared" si="0"/>
+        <v>824.42000000000007</v>
+      </c>
+      <c r="Q21" s="57">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="U21" s="57"/>
+    </row>
+    <row r="22" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="38"/>
+      <c r="U22" s="57"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="38">
+        <v>117.95</v>
+      </c>
+      <c r="N23" s="82">
+        <f>SUM(N21:Q21)</f>
+        <v>2626.76</v>
+      </c>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="U23" s="29">
+        <f>SUM(U5:U21)</f>
+        <v>439.25000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="38">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="59">
+        <v>206.29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="59">
+        <v>92</v>
+      </c>
+      <c r="N27" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="59">
+        <v>439.25000000000006</v>
+      </c>
+      <c r="N28" s="57">
+        <v>115.69</v>
+      </c>
+      <c r="O28" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="59">
+        <v>54</v>
+      </c>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="59">
+        <v>503.77</v>
+      </c>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57">
+        <v>200</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="59">
+        <v>87.86</v>
+      </c>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+    </row>
+    <row r="32" spans="3:21" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="47"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="39">
+        <f>SUM(H6:H32)</f>
+        <v>3231.19</v>
+      </c>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="H34" s="40"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="H35" s="40"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="39"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="39">
+        <f>D7</f>
+        <v>4200</v>
+      </c>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="39">
+        <v>115.69</v>
+      </c>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="39">
+        <v>391</v>
+      </c>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="39">
+        <f>(H33-H39-H38)</f>
+        <v>2724.5</v>
+      </c>
+      <c r="N40" s="57"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="39">
+        <f>H37-H40</f>
+        <v>1475.5</v>
+      </c>
+      <c r="N41" s="57"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16790,52 +17645,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="K4" s="75" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="K4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="E5" s="76" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="E5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17364,52 +18219,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17940,52 +18795,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -18610,52 +19465,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -19311,52 +20166,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -19978,52 +20833,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365FD78-C4C0-48DF-99C0-17BB11C91FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D21C2-18A3-4D61-8E9D-F5A565C66DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="22" activeTab="32" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="823" firstSheet="26" activeTab="33" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,9 +46,10 @@
     <sheet name="Setembro24" sheetId="32" r:id="rId31"/>
     <sheet name="Outubro24" sheetId="33" r:id="rId32"/>
     <sheet name="Novembro24" sheetId="34" r:id="rId33"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId34"/>
+    <sheet name="Dezembro24" sheetId="35" r:id="rId34"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="185">
   <si>
     <t>Cartões</t>
   </si>
@@ -605,6 +606,15 @@
   <si>
     <t>GS</t>
   </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Mês passado</t>
+  </si>
+  <si>
+    <t>ML SSD</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +625,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,15 +689,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +766,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,6 +1152,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,10 +1218,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,19 +1595,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="67" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1599,10 +1638,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="80"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1847,13 +1886,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="72">
+      <c r="E15" s="81">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -2107,52 +2146,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="K4" s="76" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="K4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2818,52 +2857,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3543,52 +3582,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4251,54 +4290,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="K4" s="76" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="K4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -5118,52 +5157,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="K4" s="76" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="K4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5918,52 +5957,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="L4" s="76" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6758,52 +6797,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7580,52 +7619,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -8411,49 +8450,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="L5" s="55" t="s">
         <v>27</v>
       </c>
@@ -9121,46 +9160,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -9674,52 +9713,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="E4" s="77" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="E4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10250,46 +10289,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10803,46 +10842,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11302,46 +11341,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11794,46 +11833,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12197,46 +12236,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="G4" s="81" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="G4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
@@ -12645,46 +12684,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13061,46 +13100,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13461,46 +13500,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13944,46 +13983,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -14428,46 +14467,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="81" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
@@ -14863,52 +14902,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="E4" s="77" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="E4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -15474,46 +15513,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -15912,46 +15951,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -16345,7 +16384,7 @@
   <dimension ref="B2:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:J36"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16358,46 +16397,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -16619,6 +16658,7 @@
       <c r="H18" s="38">
         <v>257.25</v>
       </c>
+      <c r="I18" s="61"/>
       <c r="O18" s="20">
         <v>80</v>
       </c>
@@ -16641,6 +16681,7 @@
       <c r="H19" s="38">
         <v>96.8</v>
       </c>
+      <c r="I19" s="61"/>
       <c r="O19" s="20">
         <v>40.54</v>
       </c>
@@ -16664,6 +16705,7 @@
       <c r="H20" s="38">
         <v>48.12</v>
       </c>
+      <c r="I20" s="61"/>
       <c r="O20" s="20">
         <v>29.51</v>
       </c>
@@ -16679,6 +16721,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="24"/>
       <c r="H21" s="38"/>
+      <c r="I21" s="61"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="R21" s="20"/>
@@ -16695,6 +16738,7 @@
       <c r="H22" s="38">
         <v>117.95</v>
       </c>
+      <c r="I22" s="61"/>
       <c r="O22" s="20">
         <v>65.73</v>
       </c>
@@ -16881,6 +16925,7 @@
       <c r="H37" s="39">
         <v>1044.76</v>
       </c>
+      <c r="I37" s="61"/>
       <c r="P37" s="20"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
@@ -16892,6 +16937,7 @@
       <c r="H38" s="39">
         <v>314.86</v>
       </c>
+      <c r="I38" s="70"/>
       <c r="P38" s="20"/>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
@@ -16931,10 +16977,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7CCE32-EB20-4929-B375-CC1CD94541EE}">
-  <dimension ref="B3:U42"/>
+  <dimension ref="B3:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16945,109 +16991,155 @@
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.85546875" customWidth="1"/>
-    <col min="14" max="17" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="54"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="54" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="54" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="54"/>
+    <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
       <c r="N4" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="R4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="T4" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="Y4" s="66" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="Z4" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" s="57">
+        <v>42.45</v>
+      </c>
+      <c r="O5" s="68">
+        <f>SUM(N5*4)</f>
         <v>169.8</v>
       </c>
-      <c r="O5" s="57">
-        <v>257.25</v>
-      </c>
-      <c r="P5" s="57">
-        <v>174.6</v>
-      </c>
-      <c r="Q5" s="57">
-        <v>235</v>
-      </c>
-      <c r="U5" s="57">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="P5" s="57"/>
+      <c r="Q5" s="68">
+        <f>SUM(P5*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="57">
+        <v>102.99</v>
+      </c>
+      <c r="S5" s="68">
+        <f>SUM(R5*6)</f>
+        <v>617.93999999999994</v>
+      </c>
+      <c r="T5" s="57">
+        <v>117</v>
+      </c>
+      <c r="U5" s="68">
+        <f>SUM(T5*3)</f>
+        <v>351</v>
+      </c>
+      <c r="Y5" s="57">
+        <v>19.79</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" s="57">
+        <v>64.56</v>
+      </c>
+      <c r="O6" s="68">
+        <f>SUM(N6*2)</f>
         <v>129.12</v>
       </c>
-      <c r="O6" s="57">
-        <v>290.39999999999998</v>
-      </c>
       <c r="P6" s="57">
-        <v>617.94000000000005</v>
-      </c>
-      <c r="Q6" s="57"/>
-      <c r="U6" s="57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="74">
+        <f>SUM(P6*3)</f>
+        <v>288</v>
+      </c>
+      <c r="R6" s="57">
+        <v>29.1</v>
+      </c>
+      <c r="S6" s="68">
+        <f t="shared" ref="S6:S20" si="0">SUM(R6*6)</f>
+        <v>174.60000000000002</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="68">
+        <f t="shared" ref="U6:U20" si="1">SUM(T6*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -17056,46 +17148,85 @@
       <c r="H7" s="59">
         <v>350</v>
       </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="49"/>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7" s="57">
-        <v>458.37</v>
-      </c>
-      <c r="O7" s="57">
+        <v>41.67</v>
+      </c>
+      <c r="O7" s="68">
+        <f>SUM(N7*12)</f>
+        <v>500.04</v>
+      </c>
+      <c r="P7" s="57">
         <v>48.12</v>
       </c>
-      <c r="P7" s="57">
-        <v>31.88</v>
-      </c>
-      <c r="Q7" s="57"/>
-      <c r="U7" s="57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q7" s="74">
+        <f t="shared" ref="Q7:Q20" si="2">SUM(P7*1)</f>
+        <v>48.12</v>
+      </c>
+      <c r="R7" s="57"/>
+      <c r="S7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="57">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="59">
-        <v>370</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="I8" s="61"/>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8" s="57">
-        <v>165.1</v>
-      </c>
-      <c r="O8" s="57"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="O8" s="68">
+        <f>SUM(N8*5)</f>
+        <v>165.10000000000002</v>
+      </c>
       <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="U8" s="57">
-        <v>190.45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q8" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="57"/>
+      <c r="S8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="57">
+        <v>25.4</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -17104,22 +17235,42 @@
         <v>33</v>
       </c>
       <c r="H9" s="59">
-        <v>105</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I9" s="61"/>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="N9" s="57">
+        <v>24.59</v>
+      </c>
+      <c r="O9" s="68">
+        <f>SUM(N9*2)</f>
         <v>49.18</v>
       </c>
-      <c r="O9" s="57"/>
       <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="U9" s="57">
-        <v>16.989999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q9" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -17130,18 +17281,38 @@
       <c r="H10" s="59">
         <v>75.900000000000006</v>
       </c>
+      <c r="I10" s="61"/>
       <c r="M10">
         <v>6</v>
       </c>
       <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="O10" s="68">
+        <f t="shared" ref="O10:O20" si="3">SUM(N10*4)</f>
+        <v>0</v>
+      </c>
       <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="U10" s="57">
-        <v>12.82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q10" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="57"/>
+      <c r="S10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -17150,20 +17321,39 @@
         <v>90</v>
       </c>
       <c r="H11" s="59">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M11">
         <v>7</v>
       </c>
       <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
+      <c r="O11" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="U11" s="57">
-        <v>79.790000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q11" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>190.45</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -17174,14 +17364,33 @@
         <v>8</v>
       </c>
       <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="O12" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="U12" s="57">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q12" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="57">
+        <v>12.82</v>
+      </c>
+      <c r="Z12" s="57">
+        <v>106.36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -17192,14 +17401,33 @@
         <v>9</v>
       </c>
       <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
+      <c r="O13" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="U13" s="57">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="57"/>
+      <c r="U13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="57">
+        <v>25.41</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -17210,12 +17438,29 @@
         <v>180</v>
       </c>
       <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
+      <c r="O14" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="U14" s="57"/>
-    </row>
-    <row r="15" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="57"/>
+      <c r="S14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+    </row>
+    <row r="15" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -17226,12 +17471,29 @@
         <v>180</v>
       </c>
       <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
+      <c r="O15" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="U15" s="57"/>
-    </row>
-    <row r="16" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="57"/>
+      <c r="U15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -17242,12 +17504,29 @@
         <v>180</v>
       </c>
       <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
+      <c r="O16" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="U16" s="57"/>
-    </row>
-    <row r="17" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="57"/>
+      <c r="S16" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="3:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28"/>
@@ -17257,12 +17536,29 @@
         <v>180</v>
       </c>
       <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
+      <c r="O17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="U17" s="57"/>
-    </row>
-    <row r="18" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57"/>
+      <c r="U17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="3:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28"/>
@@ -17272,12 +17568,29 @@
         <v>180</v>
       </c>
       <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
+      <c r="O18" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="U18" s="57"/>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -17286,19 +17599,37 @@
       <c r="G19" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="38">
-        <v>257.25</v>
-      </c>
+      <c r="H19" s="38"/>
+      <c r="J19" s="49"/>
       <c r="M19">
         <v>10</v>
       </c>
       <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
+      <c r="O19" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="U19" s="57"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -17307,16 +17638,33 @@
       <c r="G20" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="38">
-        <v>96.8</v>
-      </c>
+      <c r="H20" s="38"/>
       <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
+      <c r="O20" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="U20" s="57"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="57"/>
+      <c r="U20" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -17325,36 +17673,43 @@
       <c r="G21" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="38">
-        <v>48.12</v>
-      </c>
-      <c r="N21" s="57">
-        <f>SUM(N5:N20)</f>
-        <v>971.56999999999994</v>
-      </c>
-      <c r="O21" s="57">
-        <f t="shared" ref="O21:Q21" si="0">SUM(O5:O20)</f>
-        <v>595.77</v>
-      </c>
-      <c r="P21" s="57">
-        <f t="shared" si="0"/>
-        <v>824.42000000000007</v>
-      </c>
-      <c r="Q21" s="57">
-        <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="U21" s="57"/>
-    </row>
-    <row r="22" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="38"/>
+      <c r="O21" s="69">
+        <f>SUM(O5:O20)</f>
+        <v>1013.24</v>
+      </c>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="69">
+        <f t="shared" ref="Q21:U21" si="4">SUM(Q5:Q20)</f>
+        <v>336.12</v>
+      </c>
+      <c r="R21" s="57"/>
+      <c r="S21" s="69">
+        <f t="shared" si="4"/>
+        <v>792.54</v>
+      </c>
+      <c r="T21" s="57"/>
+      <c r="U21" s="69">
+        <f t="shared" si="4"/>
+        <v>351</v>
+      </c>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28"/>
       <c r="G22" s="24"/>
       <c r="H22" s="38"/>
-      <c r="U22" s="57"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -17366,30 +17721,35 @@
       <c r="H23" s="38">
         <v>117.95</v>
       </c>
-      <c r="N23" s="82">
-        <f>SUM(N21:Q21)</f>
-        <v>2626.76</v>
-      </c>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="U23" s="29">
-        <f>SUM(U5:U21)</f>
-        <v>439.25000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="O23" s="91">
+        <f>SUM(O21:U21)</f>
+        <v>2492.9</v>
+      </c>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="93"/>
+      <c r="Y23" s="71">
+        <f>SUM(Y5:Y21)</f>
+        <v>354.86</v>
+      </c>
+      <c r="Z23" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="38">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G24" s="24"/>
+      <c r="H24" s="38"/>
+      <c r="Z24" s="57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28"/>
@@ -17397,10 +17757,14 @@
         <v>54</v>
       </c>
       <c r="H25" s="59">
-        <v>206.29</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+        <v>342.22</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="Z25" s="57">
+        <v>98.05</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28"/>
@@ -17408,10 +17772,12 @@
         <v>164</v>
       </c>
       <c r="H26" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+        <v>632.11</v>
+      </c>
+      <c r="I26" s="61"/>
+      <c r="Z26" s="57"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28"/>
@@ -17421,14 +17787,18 @@
       <c r="H27" s="59">
         <v>92</v>
       </c>
-      <c r="N27" s="66" t="s">
+      <c r="I27" s="61"/>
+      <c r="O27" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="66" t="s">
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R27" s="66"/>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28"/>
@@ -17436,16 +17806,23 @@
         <v>165</v>
       </c>
       <c r="H28" s="59">
-        <v>439.25000000000006</v>
-      </c>
-      <c r="N28" s="57">
-        <v>115.69</v>
+        <v>464.66</v>
+      </c>
+      <c r="I28" s="61"/>
+      <c r="N28" t="s">
+        <v>184</v>
       </c>
       <c r="O28" s="57">
+        <v>116.4</v>
+      </c>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R28" s="67"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28"/>
@@ -17455,12 +17832,18 @@
       <c r="H29" s="59">
         <v>54</v>
       </c>
-      <c r="N29" s="57"/>
+      <c r="I29" s="61"/>
       <c r="O29" s="57">
+        <v>56.84</v>
+      </c>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R29" s="67"/>
+      <c r="Z29" s="57"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28"/>
@@ -17468,17 +17851,22 @@
         <v>136</v>
       </c>
       <c r="H30" s="59">
-        <v>503.77</v>
-      </c>
-      <c r="N30" s="57"/>
+        <v>1861.29</v>
+      </c>
+      <c r="I30" s="61"/>
       <c r="O30" s="57">
+        <v>58.57</v>
+      </c>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57">
         <v>200</v>
       </c>
-      <c r="P30" s="54" t="s">
+      <c r="R30" s="54" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Z30" s="57"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28"/>
@@ -17486,54 +17874,89 @@
         <v>135</v>
       </c>
       <c r="H31" s="59">
-        <v>87.86</v>
-      </c>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-    </row>
-    <row r="32" spans="3:21" ht="17.25" x14ac:dyDescent="0.4">
+        <v>700.11</v>
+      </c>
+      <c r="I31" s="61"/>
+      <c r="O31" s="57">
+        <v>64.94</v>
+      </c>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57">
+        <v>314.86</v>
+      </c>
+      <c r="R31" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z31" s="71">
+        <f>SUM(Z5:Z30)</f>
+        <v>651.1099999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="1"/>
       <c r="G32" s="24"/>
       <c r="H32" s="47"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="57">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57">
+        <v>54</v>
+      </c>
+      <c r="R32" s="67"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="G33" s="1"/>
       <c r="H33" s="39">
         <f>SUM(H6:H32)</f>
-        <v>3231.19</v>
-      </c>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+        <v>5236.2399999999989</v>
+      </c>
+      <c r="O33" s="57">
+        <v>162.66999999999999</v>
+      </c>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="67"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="H34" s="40"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="57">
+        <v>50.39</v>
+      </c>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="67"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="H35" s="40"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="57">
+        <v>50</v>
+      </c>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="67"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="G36" s="28"/>
       <c r="H36" s="39"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="57">
+        <v>48</v>
+      </c>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="67"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="G37" s="28" t="s">
@@ -17541,36 +17964,49 @@
       </c>
       <c r="H37" s="39">
         <f>D7</f>
-        <v>4200</v>
-      </c>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+      <c r="O37" s="57">
+        <v>326.35000000000002</v>
+      </c>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="67"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="G38" s="28" t="s">
         <v>71</v>
       </c>
       <c r="H38" s="39">
-        <v>115.69</v>
-      </c>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1215.69</v>
+      </c>
+      <c r="I38" s="61"/>
+      <c r="O38" s="57">
+        <v>128</v>
+      </c>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="67"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="28" t="s">
         <v>152</v>
       </c>
       <c r="H39" s="39">
-        <v>391</v>
-      </c>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+        <v>759.86</v>
+      </c>
+      <c r="O39" s="57">
+        <v>115.69</v>
+      </c>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="67"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
@@ -17578,11 +18014,13 @@
       </c>
       <c r="H40" s="39">
         <f>(H33-H39-H38)</f>
-        <v>2724.5</v>
-      </c>
-      <c r="N40" s="57"/>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+        <v>3260.6899999999991</v>
+      </c>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
@@ -17590,16 +18028,35 @@
       </c>
       <c r="H41" s="39">
         <f>H37-H40</f>
-        <v>1475.5</v>
-      </c>
-      <c r="N41" s="57"/>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N42" s="57"/>
+        <v>739.31000000000085</v>
+      </c>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N43" s="73"/>
+      <c r="O43" s="72">
+        <f>SUM(O28:O42)</f>
+        <v>1215.44</v>
+      </c>
+      <c r="P43" s="72">
+        <f t="shared" ref="P43:Q43" si="5">SUM(P28:P42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="72">
+        <f t="shared" si="5"/>
+        <v>759.86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="O23:U23"/>
     <mergeCell ref="B3:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:H5"/>
@@ -17607,10 +18064,1189 @@
     <mergeCell ref="F6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9003ECC-D38B-425A-B244-FB746E0494E5}">
+  <dimension ref="B2:Z46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="N3" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="Y3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57">
+        <v>42.45</v>
+      </c>
+      <c r="O4" s="68">
+        <f>SUM(N4*3)</f>
+        <v>127.35000000000001</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="68">
+        <f>SUM(P4*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="57">
+        <v>102.99</v>
+      </c>
+      <c r="S4" s="68">
+        <f>SUM(R4*6)</f>
+        <v>617.93999999999994</v>
+      </c>
+      <c r="T4" s="57">
+        <v>117</v>
+      </c>
+      <c r="U4" s="68">
+        <f>SUM(T4*2)</f>
+        <v>234</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="Y4" s="57">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="Z4" s="57">
+        <v>53.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="57">
+        <v>64.56</v>
+      </c>
+      <c r="O5" s="68">
+        <f>SUM(N5*1)</f>
+        <v>64.56</v>
+      </c>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="68">
+        <f>SUM(P5*3)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="57">
+        <v>29.1</v>
+      </c>
+      <c r="S5" s="68">
+        <f t="shared" ref="S5:S19" si="0">SUM(R5*6)</f>
+        <v>174.60000000000002</v>
+      </c>
+      <c r="T5" s="57"/>
+      <c r="U5" s="68">
+        <f t="shared" ref="U5:U19" si="1">SUM(T5*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="54"/>
+      <c r="Y5" s="57">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4300</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>350</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="57">
+        <v>41.67</v>
+      </c>
+      <c r="O6" s="68">
+        <f>SUM(N6*11)</f>
+        <v>458.37</v>
+      </c>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="68">
+        <f t="shared" ref="Q6:Q19" si="2">SUM(P6*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="68">
+        <f>SUM(R6*8)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="54"/>
+      <c r="Y6" s="57">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="57">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="O7" s="68">
+        <f>SUM(N7*4)</f>
+        <v>132.08000000000001</v>
+      </c>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="57"/>
+      <c r="S7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="54"/>
+      <c r="Y7" s="57">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>149</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="57">
+        <v>24.59</v>
+      </c>
+      <c r="O8" s="68">
+        <f>SUM(N8*1)</f>
+        <v>24.59</v>
+      </c>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="57"/>
+      <c r="S8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="Y8" s="57">
+        <v>7.93</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="68">
+        <f t="shared" ref="O9:O19" si="3">SUM(N9*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="54"/>
+      <c r="Y9" s="57">
+        <v>9.56</v>
+      </c>
+      <c r="Z9" s="57"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>300</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="57"/>
+      <c r="S10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="54"/>
+      <c r="Y10" s="57">
+        <v>343.4</v>
+      </c>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54"/>
+      <c r="Y11" s="57">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="54"/>
+      <c r="Y12" s="57">
+        <v>17</v>
+      </c>
+      <c r="Z12" s="57"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="38">
+        <v>117.95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="57"/>
+      <c r="U13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="54"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+    </row>
+    <row r="14" spans="2:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="38"/>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="57"/>
+      <c r="S14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="54"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+    </row>
+    <row r="15" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="57"/>
+      <c r="U15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="54"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+    </row>
+    <row r="16" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="57"/>
+      <c r="S16" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="54"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="3:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="41"/>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57"/>
+      <c r="U17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="54"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="38"/>
+      <c r="J18" s="49"/>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="54"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="59">
+        <v>342.22</v>
+      </c>
+      <c r="N19" s="57"/>
+      <c r="O19" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="59">
+        <v>134.32</v>
+      </c>
+      <c r="O20" s="69">
+        <f>SUM(O4:O19)</f>
+        <v>806.95</v>
+      </c>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="69">
+        <f>SUM(Q4:Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="69">
+        <f>SUM(S4:S19)</f>
+        <v>792.54</v>
+      </c>
+      <c r="T20" s="57"/>
+      <c r="U20" s="69">
+        <f>SUM(U4:U19)</f>
+        <v>234</v>
+      </c>
+      <c r="V20" s="54"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="59">
+        <v>92</v>
+      </c>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="59">
+        <v>581</v>
+      </c>
+      <c r="O22" s="91">
+        <f>SUM(O20:U20)</f>
+        <v>1833.49</v>
+      </c>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="54"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="59">
+        <v>54</v>
+      </c>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="59">
+        <v>750</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="O24" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="66"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="59">
+        <v>142.74</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="57">
+        <v>116.4</v>
+      </c>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57">
+        <v>111.1</v>
+      </c>
+      <c r="R25" s="67"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+    </row>
+    <row r="26" spans="3:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="47"/>
+      <c r="O26" s="57">
+        <v>50</v>
+      </c>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57">
+        <v>54</v>
+      </c>
+      <c r="R26" s="67"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="39">
+        <f>SUM(H5:H26)</f>
+        <v>3389.13</v>
+      </c>
+      <c r="O27" s="57">
+        <v>63.58</v>
+      </c>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="H28" s="40"/>
+      <c r="O28" s="57">
+        <v>208.5</v>
+      </c>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="H29" s="40"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="39"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="Y30" s="71">
+        <f>SUM(Y4:Y29)</f>
+        <v>581</v>
+      </c>
+      <c r="Z30" s="71">
+        <f>SUM(Z4:Z29)</f>
+        <v>134.32</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="G31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="39">
+        <f>D6</f>
+        <v>4300</v>
+      </c>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="39">
+        <v>438.48</v>
+      </c>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="39">
+        <v>165.1</v>
+      </c>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="39">
+        <f>(H27-H33-H32)</f>
+        <v>2785.55</v>
+      </c>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="39">
+        <f>H31-H34</f>
+        <v>1514.4499999999998</v>
+      </c>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="72">
+        <f>SUM(O25:O39)</f>
+        <v>438.48</v>
+      </c>
+      <c r="P40" s="72">
+        <f t="shared" ref="P40:Q40" si="4">SUM(P25:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="72">
+        <f t="shared" si="4"/>
+        <v>165.1</v>
+      </c>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="O22:U22"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q5 O8" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17645,52 +19281,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="K4" s="76" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="K4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="E5" s="77" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="E5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -18219,52 +19855,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="L4" s="76" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -18795,52 +20431,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="L4" s="76" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -19465,52 +21101,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="L4" s="76" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -20166,52 +21802,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="L4" s="76" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -20833,52 +22469,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="L4" s="76" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D21C2-18A3-4D61-8E9D-F5A565C66DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FECD4D-CB85-4B0D-AF75-57C50487F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="823" firstSheet="26" activeTab="33" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" firstSheet="26" activeTab="35" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -47,7 +47,10 @@
     <sheet name="Outubro24" sheetId="33" r:id="rId32"/>
     <sheet name="Novembro24" sheetId="34" r:id="rId33"/>
     <sheet name="Dezembro24" sheetId="35" r:id="rId34"/>
-    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId35"/>
+    <sheet name="Janeiro25" sheetId="36" r:id="rId35"/>
+    <sheet name="Fevereiro25" sheetId="37" r:id="rId36"/>
+    <sheet name="Março25" sheetId="38" r:id="rId37"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="189">
   <si>
     <t>Cartões</t>
   </si>
@@ -615,6 +618,18 @@
   <si>
     <t>ML SSD</t>
   </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Narguile</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Arredondando</t>
+  </si>
 </sst>
 </file>
 
@@ -998,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,6 +1188,10 @@
     <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,6 +1244,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,19 +1620,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="76" t="s">
+      <c r="C3" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="78"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1638,10 +1663,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1886,13 +1911,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="81">
+      <c r="E15" s="83">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -2146,52 +2171,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="K4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2857,52 +2882,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="K3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="86" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3582,52 +3607,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="K3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="86" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4290,54 +4315,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="K4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -5157,52 +5182,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="K4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5957,52 +5982,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="L4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6797,52 +6822,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="K3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7619,52 +7644,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="K3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -8450,49 +8475,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="L5" s="55" t="s">
         <v>27</v>
       </c>
@@ -9160,46 +9185,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -9713,52 +9738,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="K3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="E4" s="86" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10289,46 +10314,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -10842,46 +10867,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11341,46 +11366,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -11833,46 +11858,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -12236,46 +12261,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="G4" s="90" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="G4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
@@ -12684,46 +12709,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13100,46 +13125,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13500,46 +13525,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -13983,46 +14008,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -14467,46 +14492,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="90" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
@@ -14902,52 +14927,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="K3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="E4" s="86" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -15513,46 +15538,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -15951,46 +15976,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -16397,46 +16422,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -16980,7 +17005,7 @@
   <dimension ref="B3:Z43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17004,24 +17029,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
       <c r="N4" s="66" t="s">
         <v>54</v>
       </c>
@@ -17042,16 +17067,16 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
       <c r="M5">
         <v>1</v>
       </c>
@@ -17089,14 +17114,14 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="M6">
         <v>2</v>
       </c>
@@ -17721,16 +17746,16 @@
       <c r="H23" s="38">
         <v>117.95</v>
       </c>
-      <c r="O23" s="91">
+      <c r="O23" s="93">
         <f>SUM(O21:U21)</f>
         <v>2492.9</v>
       </c>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="95"/>
       <c r="Y23" s="71">
         <f>SUM(Y5:Y21)</f>
         <v>354.86</v>
@@ -18074,8 +18099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9003ECC-D38B-425A-B244-FB746E0494E5}">
   <dimension ref="B2:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18084,28 +18109,28 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
       <c r="Q2" s="54"/>
@@ -18116,13 +18141,13 @@
       <c r="V2" s="54"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="N3" s="66" t="s">
         <v>54</v>
       </c>
@@ -18146,16 +18171,16 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
       <c r="M4">
         <v>1</v>
       </c>
@@ -18186,22 +18211,18 @@
         <v>234</v>
       </c>
       <c r="V4" s="54"/>
-      <c r="Y4" s="57">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="Z4" s="57">
-        <v>53.63</v>
-      </c>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="M5">
         <v>2</v>
       </c>
@@ -18230,12 +18251,8 @@
         <v>0</v>
       </c>
       <c r="V5" s="54"/>
-      <c r="Y5" s="57">
-        <v>109</v>
-      </c>
-      <c r="Z5" s="57">
-        <v>16.989999999999998</v>
-      </c>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -18243,7 +18260,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4300</v>
+        <v>4350</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -18252,6 +18269,7 @@
       <c r="H6" s="59">
         <v>350</v>
       </c>
+      <c r="I6" s="61"/>
       <c r="J6" s="49"/>
       <c r="M6">
         <v>3</v>
@@ -18279,12 +18297,8 @@
         <v>0</v>
       </c>
       <c r="V6" s="54"/>
-      <c r="Y6" s="57">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="57">
-        <v>13</v>
-      </c>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
@@ -18293,8 +18307,9 @@
         <v>31</v>
       </c>
       <c r="H7" s="59">
-        <v>300</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="I7" s="61"/>
       <c r="M7">
         <v>4</v>
       </c>
@@ -18321,12 +18336,8 @@
         <v>0</v>
       </c>
       <c r="V7" s="54"/>
-      <c r="Y7" s="57">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="57">
-        <v>28</v>
-      </c>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
@@ -18337,8 +18348,9 @@
         <v>33</v>
       </c>
       <c r="H8" s="59">
-        <v>149</v>
-      </c>
+        <v>97.74</v>
+      </c>
+      <c r="I8" s="61"/>
       <c r="M8">
         <v>5</v>
       </c>
@@ -18365,12 +18377,8 @@
         <v>0</v>
       </c>
       <c r="V8" s="54"/>
-      <c r="Y8" s="57">
-        <v>7.93</v>
-      </c>
-      <c r="Z8" s="57">
-        <v>22.7</v>
-      </c>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
@@ -18383,6 +18391,7 @@
       <c r="H9" s="59">
         <v>75.900000000000006</v>
       </c>
+      <c r="I9" s="61"/>
       <c r="M9">
         <v>6</v>
       </c>
@@ -18407,9 +18416,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="54"/>
-      <c r="Y9" s="57">
-        <v>9.56</v>
-      </c>
+      <c r="Y9" s="57"/>
       <c r="Z9" s="57"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -18421,7 +18428,7 @@
         <v>90</v>
       </c>
       <c r="H10" s="59">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -18447,9 +18454,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="54"/>
-      <c r="Y10" s="57">
-        <v>343.4</v>
-      </c>
+      <c r="Y10" s="57"/>
       <c r="Z10" s="57"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -18483,9 +18488,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="54"/>
-      <c r="Y11" s="57">
-        <v>36.119999999999997</v>
-      </c>
+      <c r="Y11" s="57"/>
       <c r="Z11" s="57"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -18519,9 +18522,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="54"/>
-      <c r="Y12" s="57">
-        <v>17</v>
-      </c>
+      <c r="Y12" s="57"/>
       <c r="Z12" s="57"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -18537,6 +18538,7 @@
       <c r="H13" s="38">
         <v>117.95</v>
       </c>
+      <c r="I13" s="61"/>
       <c r="M13" t="s">
         <v>180</v>
       </c>
@@ -18742,6 +18744,7 @@
       <c r="H19" s="59">
         <v>342.22</v>
       </c>
+      <c r="I19" s="61"/>
       <c r="N19" s="57"/>
       <c r="O19" s="68">
         <f t="shared" si="3"/>
@@ -18774,8 +18777,9 @@
         <v>164</v>
       </c>
       <c r="H20" s="59">
-        <v>134.32</v>
-      </c>
+        <v>514.07000000000005</v>
+      </c>
+      <c r="I20" s="61"/>
       <c r="O20" s="69">
         <f>SUM(O4:O19)</f>
         <v>806.95</v>
@@ -18809,6 +18813,7 @@
       <c r="H21" s="59">
         <v>92</v>
       </c>
+      <c r="I21" s="61"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -18828,18 +18833,19 @@
         <v>165</v>
       </c>
       <c r="H22" s="59">
-        <v>581</v>
-      </c>
-      <c r="O22" s="91">
+        <v>633.4</v>
+      </c>
+      <c r="I22" s="61"/>
+      <c r="O22" s="93">
         <f>SUM(O20:U20)</f>
         <v>1833.49</v>
       </c>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="95"/>
       <c r="V22" s="54"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="57"/>
@@ -18854,6 +18860,7 @@
       <c r="H23" s="59">
         <v>54</v>
       </c>
+      <c r="I23" s="61"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -18873,8 +18880,9 @@
         <v>136</v>
       </c>
       <c r="H24" s="59">
-        <v>750</v>
-      </c>
+        <v>2215</v>
+      </c>
+      <c r="I24" s="61"/>
       <c r="K24" s="49"/>
       <c r="O24" s="66" t="s">
         <v>71</v>
@@ -18899,9 +18907,10 @@
         <v>135</v>
       </c>
       <c r="H25" s="59">
-        <v>142.74</v>
-      </c>
-      <c r="N25" t="s">
+        <v>885.42</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="N25" s="73" t="s">
         <v>184</v>
       </c>
       <c r="O25" s="57">
@@ -18911,8 +18920,12 @@
       <c r="Q25" s="57">
         <v>111.1</v>
       </c>
-      <c r="R25" s="67"/>
-      <c r="S25" s="54"/>
+      <c r="R25" s="67">
+        <v>445</v>
+      </c>
+      <c r="S25" s="54" t="s">
+        <v>183</v>
+      </c>
       <c r="T25" s="54"/>
       <c r="U25" s="54"/>
       <c r="V25" s="54"/>
@@ -18946,13 +18959,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="39">
         <f>SUM(H5:H26)</f>
-        <v>3389.13</v>
+        <v>5747.7000000000007</v>
       </c>
       <c r="O27" s="57">
         <v>63.58</v>
       </c>
       <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
+      <c r="Q27" s="57">
+        <v>80</v>
+      </c>
       <c r="R27" s="54"/>
       <c r="S27" s="54"/>
       <c r="T27" s="54"/>
@@ -18969,7 +18984,9 @@
         <v>208.5</v>
       </c>
       <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
+      <c r="Q28" s="57">
+        <v>87.8</v>
+      </c>
       <c r="R28" s="67"/>
       <c r="S28" s="54"/>
       <c r="T28" s="54"/>
@@ -18982,9 +18999,13 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="H29" s="40"/>
-      <c r="O29" s="57"/>
+      <c r="O29" s="57">
+        <v>75</v>
+      </c>
       <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
+      <c r="Q29" s="57">
+        <v>16.5</v>
+      </c>
       <c r="R29" s="67"/>
       <c r="S29" s="54"/>
       <c r="T29" s="54"/>
@@ -18998,9 +19019,13 @@
       <c r="D30" s="30"/>
       <c r="G30" s="28"/>
       <c r="H30" s="39"/>
-      <c r="O30" s="57"/>
+      <c r="O30" s="57">
+        <v>115.85</v>
+      </c>
       <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
+      <c r="Q30" s="57">
+        <v>25.86</v>
+      </c>
       <c r="R30" s="67"/>
       <c r="S30" s="54"/>
       <c r="T30" s="54"/>
@@ -19008,11 +19033,11 @@
       <c r="V30" s="54"/>
       <c r="Y30" s="71">
         <f>SUM(Y4:Y29)</f>
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="71">
         <f>SUM(Z4:Z29)</f>
-        <v>134.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -19023,11 +19048,15 @@
       </c>
       <c r="H31" s="39">
         <f>D6</f>
-        <v>4300</v>
-      </c>
-      <c r="O31" s="57"/>
+        <v>4350</v>
+      </c>
+      <c r="O31" s="57">
+        <v>20</v>
+      </c>
       <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
+      <c r="Q31" s="57">
+        <v>23.4</v>
+      </c>
       <c r="R31" s="67"/>
       <c r="S31" s="54"/>
       <c r="T31" s="54"/>
@@ -19041,11 +19070,16 @@
         <v>71</v>
       </c>
       <c r="H32" s="39">
-        <v>438.48</v>
-      </c>
-      <c r="O32" s="57"/>
+        <f>O40</f>
+        <v>1125.1600000000001</v>
+      </c>
+      <c r="O32" s="57">
+        <v>148.06</v>
+      </c>
       <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="Q32" s="57">
+        <v>50</v>
+      </c>
       <c r="R32" s="67"/>
       <c r="S32" s="54"/>
       <c r="T32" s="54"/>
@@ -19059,9 +19093,12 @@
         <v>152</v>
       </c>
       <c r="H33" s="39">
-        <v>165.1</v>
-      </c>
-      <c r="O33" s="57"/>
+        <f>Q40</f>
+        <v>448.65999999999997</v>
+      </c>
+      <c r="O33" s="57">
+        <v>150.04</v>
+      </c>
       <c r="P33" s="57"/>
       <c r="Q33" s="57"/>
       <c r="R33" s="67"/>
@@ -19078,9 +19115,11 @@
       </c>
       <c r="H34" s="39">
         <f>(H27-H33-H32)</f>
-        <v>2785.55</v>
-      </c>
-      <c r="O34" s="57"/>
+        <v>4173.880000000001</v>
+      </c>
+      <c r="O34" s="57">
+        <v>92.14</v>
+      </c>
       <c r="P34" s="57"/>
       <c r="Q34" s="57"/>
       <c r="R34" s="67"/>
@@ -19097,9 +19136,11 @@
       </c>
       <c r="H35" s="39">
         <f>H31-H34</f>
-        <v>1514.4499999999998</v>
-      </c>
-      <c r="O35" s="57"/>
+        <v>176.11999999999898</v>
+      </c>
+      <c r="O35" s="57">
+        <v>85.59</v>
+      </c>
       <c r="P35" s="57"/>
       <c r="Q35" s="57"/>
       <c r="R35" s="67"/>
@@ -19162,7 +19203,7 @@
       <c r="N40" s="73"/>
       <c r="O40" s="72">
         <f>SUM(O25:O39)</f>
-        <v>438.48</v>
+        <v>1125.1600000000001</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" ref="P40:Q40" si="4">SUM(P25:P39)</f>
@@ -19170,7 +19211,7 @@
       </c>
       <c r="Q40" s="72">
         <f t="shared" si="4"/>
-        <v>165.1</v>
+        <v>448.65999999999997</v>
       </c>
       <c r="R40" s="54"/>
       <c r="S40" s="54"/>
@@ -19247,6 +19288,3607 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E11605-ADFE-417B-A053-735584D5ECF0}">
+  <dimension ref="B2:Z40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="N3" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="Y3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57">
+        <v>42.45</v>
+      </c>
+      <c r="O4" s="68">
+        <f>SUM(N4*2)</f>
+        <v>84.9</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="68">
+        <f>SUM(P4*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="57">
+        <v>102.99</v>
+      </c>
+      <c r="S4" s="68">
+        <f>SUM(R4*4)</f>
+        <v>411.96</v>
+      </c>
+      <c r="T4" s="57"/>
+      <c r="U4" s="68">
+        <f t="shared" ref="U4:U19" si="0">SUM(T4*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57">
+        <v>24.9</v>
+      </c>
+      <c r="Z4" s="57"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="57">
+        <v>41.67</v>
+      </c>
+      <c r="O5" s="68">
+        <f>SUM(N5*10)</f>
+        <v>416.70000000000005</v>
+      </c>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="68">
+        <f>SUM(P5*3)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="57">
+        <v>29.1</v>
+      </c>
+      <c r="S5" s="68">
+        <f>SUM(R5*4)</f>
+        <v>116.4</v>
+      </c>
+      <c r="T5" s="57"/>
+      <c r="U5" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="54"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="57"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4250</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>350</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="49"/>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="57">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="O6" s="68">
+        <f>SUM(N6*3)</f>
+        <v>99.06</v>
+      </c>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="68">
+        <f t="shared" ref="Q6:Q19" si="1">SUM(P6*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="57">
+        <v>103.97</v>
+      </c>
+      <c r="S6" s="68">
+        <f>SUM(R6*4)</f>
+        <v>415.88</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="54"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57">
+        <v>32.75</v>
+      </c>
+      <c r="Z6" s="57"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>289</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="68">
+        <f t="shared" ref="O7:O8" si="2">SUM(N7*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="57">
+        <v>86.99</v>
+      </c>
+      <c r="S7" s="68">
+        <f>SUM(R7*12)</f>
+        <v>1043.8799999999999</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="54"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57">
+        <v>34.28</v>
+      </c>
+      <c r="Z7" s="57"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>119.79</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="57"/>
+      <c r="O8" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="57"/>
+      <c r="S8" s="68">
+        <f t="shared" ref="S8:S19" si="3">SUM(R8*6)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Z8" s="57"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="68">
+        <f>SUM(N9*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="54"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57">
+        <v>25.26</v>
+      </c>
+      <c r="Z9" s="57"/>
+    </row>
+    <row r="10" spans="2:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="76"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="68">
+        <f t="shared" ref="O10:O19" si="4">SUM(N10*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="57"/>
+      <c r="S10" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="54"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57">
+        <v>27.4</v>
+      </c>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="54"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57">
+        <v>35.26</v>
+      </c>
+      <c r="Z12" s="57"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="38"/>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="57"/>
+      <c r="U13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="54"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57">
+        <v>110.26</v>
+      </c>
+      <c r="Z13" s="57"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="38">
+        <v>117.95</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="57"/>
+      <c r="S14" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="54"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57">
+        <v>21.3</v>
+      </c>
+      <c r="Z14" s="57"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="57"/>
+      <c r="U15" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="54"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="57"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="57"/>
+      <c r="S16" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="54"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57">
+        <v>15.34</v>
+      </c>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="41"/>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57"/>
+      <c r="U17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="54"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="38"/>
+      <c r="J18" s="49"/>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="54"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57">
+        <v>16.5</v>
+      </c>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="59">
+        <v>117.14</v>
+      </c>
+      <c r="I19" s="61"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="59">
+        <v>168.3</v>
+      </c>
+      <c r="I20" s="61"/>
+      <c r="O20" s="69">
+        <f>SUM(O4:O19)</f>
+        <v>600.66000000000008</v>
+      </c>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="69">
+        <f>SUM(Q4:Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="69">
+        <f>SUM(S4:S19)</f>
+        <v>1988.12</v>
+      </c>
+      <c r="T20" s="57"/>
+      <c r="U20" s="69">
+        <f>SUM(U4:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="54"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57">
+        <v>139.22999999999999</v>
+      </c>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="59">
+        <v>47</v>
+      </c>
+      <c r="I21" s="61"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="57"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="59">
+        <v>1165.98</v>
+      </c>
+      <c r="I22" s="61"/>
+      <c r="O22" s="93">
+        <f>SUM(O20:U20)</f>
+        <v>2588.7799999999997</v>
+      </c>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="54"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57">
+        <v>26.2</v>
+      </c>
+      <c r="Z22" s="57"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="59">
+        <v>54</v>
+      </c>
+      <c r="I23" s="61"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57">
+        <v>112</v>
+      </c>
+      <c r="Z23" s="57"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="59">
+        <v>1915.01</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="K24" s="49"/>
+      <c r="O24" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="66"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57">
+        <v>20.48</v>
+      </c>
+      <c r="Z24" s="57"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="59">
+        <v>1083.8699999999999</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="57">
+        <v>102.69</v>
+      </c>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="57">
+        <v>500</v>
+      </c>
+      <c r="T25" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="57"/>
+    </row>
+    <row r="26" spans="3:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="47"/>
+      <c r="O26" s="57">
+        <v>475.56</v>
+      </c>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57">
+        <v>54</v>
+      </c>
+      <c r="R26" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57">
+        <v>24.9</v>
+      </c>
+      <c r="Z26" s="57"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="39">
+        <f>SUM(H5:H26)</f>
+        <v>5608.94</v>
+      </c>
+      <c r="O27" s="57">
+        <v>20.43</v>
+      </c>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57">
+        <v>119.01</v>
+      </c>
+      <c r="R27" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="H28" s="40"/>
+      <c r="O28" s="57">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57">
+        <v>18.27</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="H29" s="40"/>
+      <c r="O29" s="57">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57">
+        <v>90.56</v>
+      </c>
+      <c r="R29" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="39"/>
+      <c r="O30" s="57">
+        <v>13.94</v>
+      </c>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57">
+        <v>80</v>
+      </c>
+      <c r="R30" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="X30" s="71">
+        <f>SUM(X4:X29)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="71">
+        <f>SUM(Y4:Y29)</f>
+        <v>864.48</v>
+      </c>
+      <c r="Z30" s="71">
+        <f>SUM(Z4:Z29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="G31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="39">
+        <f>D6</f>
+        <v>4250</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="O31" s="57">
+        <v>16.52</v>
+      </c>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57">
+        <v>39</v>
+      </c>
+      <c r="R31" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="X31" s="96">
+        <f>SUM(X30:Y30)</f>
+        <v>864.48</v>
+      </c>
+      <c r="Y31" s="97"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="39">
+        <f>O40</f>
+        <v>1125.18</v>
+      </c>
+      <c r="O32" s="57">
+        <v>200</v>
+      </c>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="39">
+        <f>Q40</f>
+        <v>400.84000000000003</v>
+      </c>
+      <c r="O33" s="57">
+        <v>11.16</v>
+      </c>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="39">
+        <f>(H27-H33-H32)</f>
+        <v>4082.9199999999992</v>
+      </c>
+      <c r="O34" s="57">
+        <v>119.56</v>
+      </c>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="39">
+        <f>H31-H34</f>
+        <v>167.08000000000084</v>
+      </c>
+      <c r="O35" s="57">
+        <v>43.96</v>
+      </c>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="O36" s="57">
+        <v>26.5</v>
+      </c>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="O37" s="57">
+        <v>50</v>
+      </c>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="O38" s="57">
+        <v>5.95</v>
+      </c>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="72">
+        <f>SUM(O25:O39)</f>
+        <v>1125.18</v>
+      </c>
+      <c r="P40" s="72">
+        <f t="shared" ref="P40:Q40" si="5">SUM(P25:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="72">
+        <f t="shared" si="5"/>
+        <v>400.84000000000003</v>
+      </c>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="O22:U22"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F5136-EAC2-4D9A-A5D8-98F39E4B35AA}">
+  <dimension ref="B2:Z40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="N3" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="X3" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57">
+        <v>42.45</v>
+      </c>
+      <c r="O4" s="68">
+        <f>SUM(N4*1)</f>
+        <v>42.45</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="68">
+        <f>SUM(P4*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="57">
+        <v>102.99</v>
+      </c>
+      <c r="S4" s="68">
+        <f>SUM(R4*3)</f>
+        <v>308.96999999999997</v>
+      </c>
+      <c r="T4" s="57"/>
+      <c r="U4" s="68">
+        <f t="shared" ref="U4:U19" si="0">SUM(T4*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="X4" s="57">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="57">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="Z4" s="57">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="57">
+        <v>41.67</v>
+      </c>
+      <c r="O5" s="68">
+        <f>SUM(N5*9)</f>
+        <v>375.03000000000003</v>
+      </c>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="68">
+        <f>SUM(P5*3)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="57">
+        <v>29.1</v>
+      </c>
+      <c r="S5" s="68">
+        <f>SUM(R5*3)</f>
+        <v>87.300000000000011</v>
+      </c>
+      <c r="T5" s="57"/>
+      <c r="U5" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="54"/>
+      <c r="X5" s="57">
+        <v>29.47</v>
+      </c>
+      <c r="Y5" s="57">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4245</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>350</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="57">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="O6" s="68">
+        <f>SUM(N6*2)</f>
+        <v>66.040000000000006</v>
+      </c>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="68">
+        <f t="shared" ref="Q6:Q19" si="1">SUM(P6*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="57">
+        <v>103.97</v>
+      </c>
+      <c r="S6" s="68">
+        <f>SUM(R6*3)</f>
+        <v>311.90999999999997</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="54"/>
+      <c r="X6" s="57">
+        <v>42.83</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>19.55</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>286</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="68">
+        <f t="shared" ref="O7:O8" si="2">SUM(N7*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="57">
+        <v>86.99</v>
+      </c>
+      <c r="S7" s="68">
+        <f>SUM(R7*12)</f>
+        <v>1043.8799999999999</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="54"/>
+      <c r="X7" s="57">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="57">
+        <v>275.69</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>149.79</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="57"/>
+      <c r="O8" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="57"/>
+      <c r="S8" s="68">
+        <f t="shared" ref="S8:S19" si="3">SUM(R8*6)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="X8" s="57">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="57">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="68">
+        <f>SUM(N9*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="54"/>
+      <c r="X9" s="57">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>55.76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="76"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>150</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="68">
+        <f t="shared" ref="O10:O19" si="4">SUM(N10*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="57"/>
+      <c r="S10" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="54"/>
+      <c r="X10" s="57">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>36.31</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54"/>
+      <c r="X11" s="57">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>22.8</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="54"/>
+      <c r="X12" s="57">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="38"/>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="57"/>
+      <c r="U13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="54"/>
+      <c r="X13" s="57">
+        <v>309.5</v>
+      </c>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="38"/>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="57"/>
+      <c r="S14" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="54"/>
+      <c r="X14" s="57">
+        <v>19.5</v>
+      </c>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="57"/>
+      <c r="U15" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="54"/>
+      <c r="X15" s="57">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="57"/>
+      <c r="S16" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="54"/>
+      <c r="X16" s="57">
+        <v>14.5</v>
+      </c>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="41"/>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57"/>
+      <c r="U17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="54"/>
+      <c r="X17" s="57">
+        <v>20.48</v>
+      </c>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="38"/>
+      <c r="J18" s="49"/>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="54"/>
+      <c r="X18" s="57">
+        <v>32.67</v>
+      </c>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="59">
+        <v>808.08</v>
+      </c>
+      <c r="N19" s="57"/>
+      <c r="O19" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="X19" s="57">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="59">
+        <v>598.79</v>
+      </c>
+      <c r="O20" s="69">
+        <f>SUM(O4:O19)</f>
+        <v>483.52000000000004</v>
+      </c>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="69">
+        <f>SUM(Q4:Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="69">
+        <f>SUM(S4:S19)</f>
+        <v>1752.06</v>
+      </c>
+      <c r="T20" s="57"/>
+      <c r="U20" s="69">
+        <f>SUM(U4:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="54"/>
+      <c r="X20" s="57">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="59">
+        <v>47</v>
+      </c>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="59">
+        <v>448.3</v>
+      </c>
+      <c r="O22" s="93">
+        <f>SUM(O20:U20)</f>
+        <v>2235.58</v>
+      </c>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="54"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="59">
+        <v>54</v>
+      </c>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="59">
+        <v>1278.42</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="O24" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="66"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="59">
+        <v>561.02</v>
+      </c>
+      <c r="N25" s="73"/>
+      <c r="O25" s="57">
+        <v>595.04999999999995</v>
+      </c>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="67">
+        <v>900</v>
+      </c>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+    </row>
+    <row r="26" spans="3:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="47"/>
+      <c r="O26" s="57">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57">
+        <v>54</v>
+      </c>
+      <c r="R26" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="39">
+        <f>SUM(H5:H26)</f>
+        <v>4812.3000000000011</v>
+      </c>
+      <c r="O27" s="57">
+        <v>5.95</v>
+      </c>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57">
+        <v>122.76</v>
+      </c>
+      <c r="R27" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="H28" s="40"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57">
+        <v>80</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="H29" s="40"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="X29" s="57">
+        <v>117.14</v>
+      </c>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="39"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="X30" s="71">
+        <f>SUM(X4:X29)</f>
+        <v>808.07999999999993</v>
+      </c>
+      <c r="Y30" s="71">
+        <f>SUM(Y4:Y29)</f>
+        <v>432.6</v>
+      </c>
+      <c r="Z30" s="71">
+        <f>SUM(Z4:Z29)</f>
+        <v>429.48000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="G31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="39">
+        <f>D6</f>
+        <v>4245</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="X31" s="96">
+        <f>SUM(X30:Z30)</f>
+        <v>1670.1599999999999</v>
+      </c>
+      <c r="Y31" s="97"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="39">
+        <f>O40</f>
+        <v>620.9</v>
+      </c>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="39">
+        <f>Q40</f>
+        <v>256.76</v>
+      </c>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="39">
+        <f>(H27-H33-H32)</f>
+        <v>3934.6400000000008</v>
+      </c>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="39">
+        <f>H31-H34</f>
+        <v>310.35999999999922</v>
+      </c>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="72">
+        <f>SUM(O25:O39)</f>
+        <v>620.9</v>
+      </c>
+      <c r="P40" s="72">
+        <f t="shared" ref="P40:Q40" si="5">SUM(P25:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="72">
+        <f t="shared" si="5"/>
+        <v>256.76</v>
+      </c>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="O22:U22"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBB4B88-1E8A-4F81-A2D9-84EB634DAD67}">
+  <dimension ref="B2:Z40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="N3" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="Y3" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57"/>
+      <c r="O4" s="68">
+        <f>SUM(N4*1)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="68">
+        <f>SUM(P4*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="57">
+        <v>102.99</v>
+      </c>
+      <c r="S4" s="68">
+        <f>SUM(R4*2)</f>
+        <v>205.98</v>
+      </c>
+      <c r="T4" s="57"/>
+      <c r="U4" s="68">
+        <f t="shared" ref="U4:U19" si="0">SUM(T4*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="57"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="57">
+        <v>41.67</v>
+      </c>
+      <c r="O5" s="68">
+        <f>SUM(N5*8)</f>
+        <v>333.36</v>
+      </c>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="68">
+        <f>SUM(P5*3)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="57">
+        <v>29.1</v>
+      </c>
+      <c r="S5" s="68">
+        <f>SUM(R5*2)</f>
+        <v>58.2</v>
+      </c>
+      <c r="T5" s="57"/>
+      <c r="U5" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="54"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57">
+        <v>38.67</v>
+      </c>
+      <c r="Z5" s="57"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4200</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="59">
+        <v>350</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="57">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="O6" s="68">
+        <f>SUM(N6*1)</f>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="68">
+        <f t="shared" ref="Q6:Q19" si="1">SUM(P6*1)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="57">
+        <v>103.97</v>
+      </c>
+      <c r="S6" s="68">
+        <f>SUM(R6*2)</f>
+        <v>207.94</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="54"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57">
+        <v>13.05</v>
+      </c>
+      <c r="Z6" s="57"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="59">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="68">
+        <f t="shared" ref="O7:O8" si="2">SUM(N7*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="57">
+        <v>86.99</v>
+      </c>
+      <c r="S7" s="68">
+        <f>SUM(R7*10)</f>
+        <v>869.9</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="54"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="Z7" s="57"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59">
+        <v>149</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="57"/>
+      <c r="O8" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="57"/>
+      <c r="S8" s="68">
+        <f t="shared" ref="S8:S19" si="3">SUM(R8*6)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="57"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="59">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="68">
+        <f>SUM(N9*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="54"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Z9" s="57"/>
+    </row>
+    <row r="10" spans="2:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="76"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>150</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="68">
+        <f t="shared" ref="O10:O19" si="4">SUM(N10*4)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="57"/>
+      <c r="S10" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="54"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57">
+        <v>31.06</v>
+      </c>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="59"/>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="59"/>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="54"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="57"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="38"/>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="57"/>
+      <c r="U13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="54"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" s="57"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="38"/>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="57"/>
+      <c r="S14" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="54"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z14" s="57"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="57"/>
+      <c r="U15" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="54"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57">
+        <v>17.3</v>
+      </c>
+      <c r="Z15" s="57"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="57"/>
+      <c r="S16" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="54"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57">
+        <v>195.68</v>
+      </c>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="41"/>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57"/>
+      <c r="U17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="54"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="38"/>
+      <c r="J18" s="49"/>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="54"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="59">
+        <v>74.69</v>
+      </c>
+      <c r="N19" s="57"/>
+      <c r="O19" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="57"/>
+      <c r="U19" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="59">
+        <v>0</v>
+      </c>
+      <c r="O20" s="69">
+        <f>SUM(O4:O19)</f>
+        <v>366.38</v>
+      </c>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="69">
+        <f>SUM(Q4:Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="69">
+        <f>SUM(S4:S19)</f>
+        <v>1342.02</v>
+      </c>
+      <c r="T20" s="57"/>
+      <c r="U20" s="69">
+        <f>SUM(U4:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="54"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="59">
+        <v>47</v>
+      </c>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="59">
+        <v>485.25</v>
+      </c>
+      <c r="O22" s="93">
+        <f>SUM(O20:U20)</f>
+        <v>1708.4</v>
+      </c>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="54"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="59">
+        <v>54</v>
+      </c>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="59">
+        <v>490.5</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="O24" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="66"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0</v>
+      </c>
+      <c r="N25" s="73"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+    </row>
+    <row r="26" spans="3:26" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="47"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57">
+        <v>54</v>
+      </c>
+      <c r="R26" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="39">
+        <f>SUM(H5:H26)</f>
+        <v>2181.34</v>
+      </c>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57">
+        <v>111.1</v>
+      </c>
+      <c r="R27" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="H28" s="40"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="H29" s="40"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="39"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="X30" s="71">
+        <f>SUM(X4:X29)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="71">
+        <f>SUM(Y4:Y29)</f>
+        <v>485.25</v>
+      </c>
+      <c r="Z30" s="71">
+        <f>SUM(Z4:Z29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="G31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="39">
+        <f>D6</f>
+        <v>4200</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="X31" s="96">
+        <f>SUM(X30:Y30)</f>
+        <v>485.25</v>
+      </c>
+      <c r="Y31" s="97"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="39">
+        <f>O40</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="39">
+        <f>Q40</f>
+        <v>165.1</v>
+      </c>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="39">
+        <f>(H27-H33-H32)</f>
+        <v>2016.2400000000002</v>
+      </c>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="39">
+        <f>H31-H34</f>
+        <v>2183.7599999999998</v>
+      </c>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="72">
+        <f>SUM(O25:O39)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="72">
+        <f t="shared" ref="P40:Q40" si="5">SUM(P25:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="72">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="O22:U22"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19281,52 +22923,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="K4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="E5" s="86" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="E5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -19855,52 +23497,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="L4" s="85" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -20431,52 +24073,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="L4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -21101,52 +24743,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="L4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -21802,52 +25444,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="L4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -22469,52 +26111,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="L4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FECD4D-CB85-4B0D-AF75-57C50487F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB037E-F708-4EAC-90F7-7A8B9F3C2111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" firstSheet="26" activeTab="35" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" firstSheet="26" activeTab="36" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="189">
   <si>
     <t>Cartões</t>
   </si>
@@ -20533,8 +20533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F5136-EAC2-4D9A-A5D8-98F39E4B35AA}">
   <dimension ref="B2:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20718,6 +20718,7 @@
       <c r="H6" s="59">
         <v>350</v>
       </c>
+      <c r="I6" s="61"/>
       <c r="J6" s="49"/>
       <c r="M6">
         <v>3</v>
@@ -20766,6 +20767,7 @@
       <c r="H7" s="59">
         <v>286</v>
       </c>
+      <c r="I7" s="61"/>
       <c r="M7">
         <v>4</v>
       </c>
@@ -20813,6 +20815,7 @@
       <c r="H8" s="59">
         <v>149.79</v>
       </c>
+      <c r="I8" s="61"/>
       <c r="M8">
         <v>5</v>
       </c>
@@ -20858,6 +20861,7 @@
       <c r="H9" s="59">
         <v>80.900000000000006</v>
       </c>
+      <c r="I9" s="61"/>
       <c r="M9">
         <v>6</v>
       </c>
@@ -20903,6 +20907,7 @@
       <c r="H10" s="59">
         <v>150</v>
       </c>
+      <c r="I10" s="61"/>
       <c r="M10">
         <v>7</v>
       </c>
@@ -21255,6 +21260,7 @@
       <c r="H19" s="59">
         <v>808.08</v>
       </c>
+      <c r="I19" s="61"/>
       <c r="N19" s="57"/>
       <c r="O19" s="68">
         <f t="shared" si="4"/>
@@ -21292,6 +21298,7 @@
       <c r="H20" s="59">
         <v>598.79</v>
       </c>
+      <c r="I20" s="61"/>
       <c r="O20" s="69">
         <f>SUM(O4:O19)</f>
         <v>483.52000000000004</v>
@@ -21328,6 +21335,7 @@
       <c r="H21" s="59">
         <v>47</v>
       </c>
+      <c r="I21" s="61"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -21350,6 +21358,7 @@
       <c r="H22" s="59">
         <v>448.3</v>
       </c>
+      <c r="I22" s="61"/>
       <c r="O22" s="93">
         <f>SUM(O20:U20)</f>
         <v>2235.58</v>
@@ -21375,6 +21384,7 @@
       <c r="H23" s="59">
         <v>54</v>
       </c>
+      <c r="I23" s="61"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -21397,6 +21407,7 @@
       <c r="H24" s="59">
         <v>1278.42</v>
       </c>
+      <c r="I24" s="61"/>
       <c r="K24" s="49"/>
       <c r="O24" s="66" t="s">
         <v>71</v>
@@ -21424,6 +21435,7 @@
       <c r="H25" s="59">
         <v>561.02</v>
       </c>
+      <c r="I25" s="61"/>
       <c r="N25" s="73"/>
       <c r="O25" s="57">
         <v>595.04999999999995</v>
@@ -21744,8 +21756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBB4B88-1E8A-4F81-A2D9-84EB634DAD67}">
   <dimension ref="B2:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21854,7 +21866,7 @@
       <c r="V4" s="54"/>
       <c r="X4" s="57"/>
       <c r="Y4" s="57">
-        <v>19</v>
+        <v>38.67</v>
       </c>
       <c r="Z4" s="57"/>
     </row>
@@ -21897,7 +21909,7 @@
       <c r="V5" s="54"/>
       <c r="X5" s="57"/>
       <c r="Y5" s="57">
-        <v>38.67</v>
+        <v>24.14</v>
       </c>
       <c r="Z5" s="57"/>
     </row>
@@ -21947,7 +21959,7 @@
       <c r="V6" s="54"/>
       <c r="X6" s="57"/>
       <c r="Y6" s="57">
-        <v>13.05</v>
+        <v>19</v>
       </c>
       <c r="Z6" s="57"/>
     </row>
@@ -21988,7 +22000,7 @@
       <c r="V7" s="54"/>
       <c r="X7" s="57"/>
       <c r="Y7" s="57">
-        <v>16.989999999999998</v>
+        <v>31.08</v>
       </c>
       <c r="Z7" s="57"/>
     </row>
@@ -22029,7 +22041,7 @@
       <c r="V8" s="54"/>
       <c r="X8" s="57"/>
       <c r="Y8" s="57">
-        <v>28</v>
+        <v>13.05</v>
       </c>
       <c r="Z8" s="57"/>
     </row>
@@ -22070,7 +22082,7 @@
       <c r="V9" s="54"/>
       <c r="X9" s="57"/>
       <c r="Y9" s="57">
-        <v>16.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="Z9" s="57"/>
     </row>
@@ -22082,9 +22094,7 @@
       <c r="G10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="59">
-        <v>150</v>
-      </c>
+      <c r="H10" s="59"/>
       <c r="M10">
         <v>7</v>
       </c>
@@ -22111,7 +22121,7 @@
       <c r="V10" s="54"/>
       <c r="X10" s="57"/>
       <c r="Y10" s="57">
-        <v>31.06</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="Z10" s="57"/>
     </row>
@@ -22148,7 +22158,7 @@
       <c r="V11" s="54"/>
       <c r="X11" s="57"/>
       <c r="Y11" s="57">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Z11" s="57"/>
     </row>
@@ -22185,7 +22195,7 @@
       <c r="V12" s="54"/>
       <c r="X12" s="57"/>
       <c r="Y12" s="57">
-        <v>13</v>
+        <v>26.1</v>
       </c>
       <c r="Z12" s="57"/>
     </row>
@@ -22222,7 +22232,7 @@
       <c r="V13" s="54"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="57">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" s="57"/>
     </row>
@@ -22259,7 +22269,7 @@
       <c r="V14" s="54"/>
       <c r="X14" s="57"/>
       <c r="Y14" s="57">
-        <v>19.899999999999999</v>
+        <v>195.68</v>
       </c>
       <c r="Z14" s="57"/>
     </row>
@@ -22296,7 +22306,7 @@
       <c r="V15" s="54"/>
       <c r="X15" s="57"/>
       <c r="Y15" s="57">
-        <v>17.3</v>
+        <v>5.85</v>
       </c>
       <c r="Z15" s="57"/>
     </row>
@@ -22332,7 +22342,7 @@
       <c r="V16" s="54"/>
       <c r="X16" s="57"/>
       <c r="Y16" s="57">
-        <v>195.68</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Z16" s="57"/>
     </row>
@@ -22368,7 +22378,7 @@
       <c r="V17" s="54"/>
       <c r="X17" s="57"/>
       <c r="Y17" s="57">
-        <v>50</v>
+        <v>17.3</v>
       </c>
       <c r="Z17" s="57"/>
     </row>
@@ -22404,7 +22414,9 @@
       </c>
       <c r="V18" s="54"/>
       <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
+      <c r="Y18" s="57">
+        <v>13.5</v>
+      </c>
       <c r="Z18" s="57"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -22415,7 +22427,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="59">
-        <v>74.69</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="N19" s="57"/>
       <c r="O19" s="68">
@@ -22439,7 +22451,9 @@
       </c>
       <c r="V19" s="54"/>
       <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
+      <c r="Y19" s="57">
+        <v>24.9</v>
+      </c>
       <c r="Z19" s="57"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -22506,7 +22520,7 @@
         <v>165</v>
       </c>
       <c r="H22" s="59">
-        <v>485.25</v>
+        <v>500.12</v>
       </c>
       <c r="O22" s="93">
         <f>SUM(O20:U20)</f>
@@ -22553,7 +22567,7 @@
         <v>136</v>
       </c>
       <c r="H24" s="59">
-        <v>490.5</v>
+        <v>2083.71</v>
       </c>
       <c r="K24" s="49"/>
       <c r="O24" s="66" t="s">
@@ -22580,13 +22594,19 @@
         <v>135</v>
       </c>
       <c r="H25" s="59">
-        <v>0</v>
+        <v>134.07</v>
       </c>
       <c r="N25" s="73"/>
-      <c r="O25" s="57"/>
+      <c r="O25" s="57">
+        <v>565.04999999999995</v>
+      </c>
       <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="67"/>
+      <c r="Q25" s="57">
+        <v>54</v>
+      </c>
+      <c r="R25" s="67" t="s">
+        <v>185</v>
+      </c>
       <c r="S25" s="54"/>
       <c r="T25" s="54"/>
       <c r="U25" s="54"/>
@@ -22601,13 +22621,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="24"/>
       <c r="H26" s="47"/>
-      <c r="O26" s="57"/>
+      <c r="O26" s="57">
+        <v>138.85</v>
+      </c>
       <c r="P26" s="57"/>
       <c r="Q26" s="57">
-        <v>54</v>
-      </c>
-      <c r="R26" s="67" t="s">
-        <v>185</v>
+        <v>111.1</v>
+      </c>
+      <c r="R26" s="54" t="s">
+        <v>165</v>
       </c>
       <c r="S26" s="54"/>
       <c r="T26" s="54"/>
@@ -22623,16 +22645,16 @@
       <c r="G27" s="1"/>
       <c r="H27" s="39">
         <f>SUM(H5:H26)</f>
-        <v>2181.34</v>
-      </c>
-      <c r="O27" s="57"/>
+        <v>3731.82</v>
+      </c>
+      <c r="O27" s="57">
+        <v>52</v>
+      </c>
       <c r="P27" s="57"/>
       <c r="Q27" s="57">
-        <v>111.1</v>
-      </c>
-      <c r="R27" s="54" t="s">
-        <v>165</v>
-      </c>
+        <v>158.72999999999999</v>
+      </c>
+      <c r="R27" s="54"/>
       <c r="S27" s="54"/>
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
@@ -22645,12 +22667,14 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="H28" s="40"/>
-      <c r="O28" s="57"/>
+      <c r="O28" s="57">
+        <v>52</v>
+      </c>
       <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="54" t="s">
-        <v>165</v>
-      </c>
+      <c r="Q28" s="57">
+        <v>78</v>
+      </c>
+      <c r="R28" s="54"/>
       <c r="S28" s="54"/>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
@@ -22663,12 +22687,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="H29" s="40"/>
-      <c r="O29" s="57"/>
+      <c r="O29" s="57">
+        <v>15.9</v>
+      </c>
       <c r="P29" s="57"/>
       <c r="Q29" s="57"/>
-      <c r="R29" s="54" t="s">
-        <v>165</v>
-      </c>
+      <c r="R29" s="54"/>
       <c r="S29" s="54"/>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -22696,7 +22720,7 @@
       </c>
       <c r="Y30" s="71">
         <f>SUM(Y4:Y29)</f>
-        <v>485.25</v>
+        <v>500.16</v>
       </c>
       <c r="Z30" s="71">
         <f>SUM(Z4:Z29)</f>
@@ -22724,7 +22748,7 @@
       <c r="V31" s="54"/>
       <c r="X31" s="96">
         <f>SUM(X30:Y30)</f>
-        <v>485.25</v>
+        <v>500.16</v>
       </c>
       <c r="Y31" s="97"/>
     </row>
@@ -22736,7 +22760,7 @@
       </c>
       <c r="H32" s="39">
         <f>O40</f>
-        <v>0</v>
+        <v>823.8</v>
       </c>
       <c r="O32" s="57"/>
       <c r="P32" s="57"/>
@@ -22755,7 +22779,7 @@
       </c>
       <c r="H33" s="39">
         <f>Q40</f>
-        <v>165.1</v>
+        <v>401.83</v>
       </c>
       <c r="O33" s="57"/>
       <c r="P33" s="57"/>
@@ -22774,7 +22798,7 @@
       </c>
       <c r="H34" s="39">
         <f>(H27-H33-H32)</f>
-        <v>2016.2400000000002</v>
+        <v>2506.1900000000005</v>
       </c>
       <c r="O34" s="57"/>
       <c r="P34" s="57"/>
@@ -22793,7 +22817,7 @@
       </c>
       <c r="H35" s="39">
         <f>H31-H34</f>
-        <v>2183.7599999999998</v>
+        <v>1693.8099999999995</v>
       </c>
       <c r="O35" s="57"/>
       <c r="P35" s="57"/>
@@ -22858,7 +22882,7 @@
       <c r="N40" s="73"/>
       <c r="O40" s="72">
         <f>SUM(O25:O39)</f>
-        <v>0</v>
+        <v>823.8</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" ref="P40:Q40" si="5">SUM(P25:P39)</f>
@@ -22866,7 +22890,7 @@
       </c>
       <c r="Q40" s="72">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>401.83</v>
       </c>
       <c r="R40" s="54"/>
       <c r="S40" s="54"/>

--- a/Arquivos Texto/Contas 2022 - Atual.xlsx
+++ b/Arquivos Texto/Contas 2022 - Atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB037E-F708-4EAC-90F7-7A8B9F3C2111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9777DC-6424-4CBC-8EDF-FFADD62DED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" firstSheet="26" activeTab="36" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="196">
   <si>
     <t>Cartões</t>
   </si>
@@ -629,6 +629,27 @@
   </si>
   <si>
     <t>Arredondando</t>
+  </si>
+  <si>
+    <t>Pires</t>
+  </si>
+  <si>
+    <t>Lanche</t>
+  </si>
+  <si>
+    <t>Cel</t>
+  </si>
+  <si>
+    <t>Rancho</t>
+  </si>
+  <si>
+    <t>Faltam 4</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Faltam 5</t>
   </si>
 </sst>
 </file>
@@ -21757,7 +21778,7 @@
   <dimension ref="B2:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21768,7 +21789,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
@@ -22427,7 +22448,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="59">
-        <v>33.020000000000003</v>
+        <v>76.73</v>
       </c>
       <c r="N19" s="57"/>
       <c r="O19" s="68">
@@ -22464,7 +22485,7 @@
         <v>164</v>
       </c>
       <c r="H20" s="59">
-        <v>0</v>
+        <v>126.14</v>
       </c>
       <c r="O20" s="69">
         <f>SUM(O4:O19)</f>
@@ -22567,7 +22588,7 @@
         <v>136</v>
       </c>
       <c r="H24" s="59">
-        <v>2083.71</v>
+        <v>2337.54</v>
       </c>
       <c r="K24" s="49"/>
       <c r="O24" s="66" t="s">
@@ -22594,7 +22615,7 @@
         <v>135</v>
       </c>
       <c r="H25" s="59">
-        <v>134.07</v>
+        <v>205.23</v>
       </c>
       <c r="N25" s="73"/>
       <c r="O25" s="57">
@@ -22629,7 +22650,7 @@
         <v>111.1</v>
       </c>
       <c r="R26" s="54" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="S26" s="54"/>
       <c r="T26" s="54"/>
@@ -22645,7 +22666,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="39">
         <f>SUM(H5:H26)</f>
-        <v>3731.82</v>
+        <v>4226.66</v>
       </c>
       <c r="O27" s="57">
         <v>52</v>
@@ -22654,7 +22675,9 @@
       <c r="Q27" s="57">
         <v>158.72999999999999</v>
       </c>
-      <c r="R27" s="54"/>
+      <c r="R27" s="54" t="s">
+        <v>189</v>
+      </c>
       <c r="S27" s="54"/>
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
@@ -22674,7 +22697,9 @@
       <c r="Q28" s="57">
         <v>78</v>
       </c>
-      <c r="R28" s="54"/>
+      <c r="R28" s="54" t="s">
+        <v>190</v>
+      </c>
       <c r="S28" s="54"/>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
@@ -22691,8 +22716,12 @@
         <v>15.9</v>
       </c>
       <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="54"/>
+      <c r="Q29" s="57">
+        <v>21.77</v>
+      </c>
+      <c r="R29" s="54" t="s">
+        <v>192</v>
+      </c>
       <c r="S29" s="54"/>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -22706,10 +22735,16 @@
       <c r="D30" s="30"/>
       <c r="G30" s="28"/>
       <c r="H30" s="39"/>
-      <c r="O30" s="57"/>
+      <c r="O30" s="57">
+        <v>59.06</v>
+      </c>
       <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="67"/>
+      <c r="Q30" s="57">
+        <v>71.16</v>
+      </c>
+      <c r="R30" s="54" t="s">
+        <v>192</v>
+      </c>
       <c r="S30" s="54"/>
       <c r="T30" s="54"/>
       <c r="U30" s="54"/>
@@ -22738,10 +22773,16 @@
         <v>4200</v>
       </c>
       <c r="L31" s="49"/>
-      <c r="O31" s="57"/>
+      <c r="O31" s="57">
+        <v>15</v>
+      </c>
       <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="67"/>
+      <c r="Q31" s="57">
+        <v>15</v>
+      </c>
+      <c r="R31" s="54" t="s">
+        <v>192</v>
+      </c>
       <c r="S31" s="54"/>
       <c r="T31" s="54"/>
       <c r="U31" s="54"/>
@@ -22760,13 +22801,21 @@
       </c>
       <c r="H32" s="39">
         <f>O40</f>
-        <v>823.8</v>
-      </c>
-      <c r="O32" s="57"/>
+        <v>1055.8599999999999</v>
+      </c>
+      <c r="O32" s="57">
+        <v>52</v>
+      </c>
       <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="54"/>
+      <c r="Q32" s="57">
+        <v>126.14</v>
+      </c>
+      <c r="R32" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="54" t="s">
+        <v>193</v>
+      </c>
       <c r="T32" s="54"/>
       <c r="U32" s="54"/>
       <c r="V32" s="54"/>
@@ -22779,13 +22828,21 @@
       </c>
       <c r="H33" s="39">
         <f>Q40</f>
-        <v>401.83</v>
-      </c>
-      <c r="O33" s="57"/>
+        <v>679.61</v>
+      </c>
+      <c r="O33" s="57">
+        <v>45</v>
+      </c>
       <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="54"/>
+      <c r="Q33" s="57">
+        <v>43.71</v>
+      </c>
+      <c r="R33" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="S33" s="54" t="s">
+        <v>195</v>
+      </c>
       <c r="T33" s="54"/>
       <c r="U33" s="54"/>
       <c r="V33" s="54"/>
@@ -22798,9 +22855,11 @@
       </c>
       <c r="H34" s="39">
         <f>(H27-H33-H32)</f>
-        <v>2506.1900000000005</v>
-      </c>
-      <c r="O34" s="57"/>
+        <v>2491.1899999999996</v>
+      </c>
+      <c r="O34" s="57">
+        <v>61</v>
+      </c>
       <c r="P34" s="57"/>
       <c r="Q34" s="57"/>
       <c r="R34" s="67"/>
@@ -22817,7 +22876,7 @@
       </c>
       <c r="H35" s="39">
         <f>H31-H34</f>
-        <v>1693.8099999999995</v>
+        <v>1708.8100000000004</v>
       </c>
       <c r="O35" s="57"/>
       <c r="P35" s="57"/>
@@ -22882,7 +22941,7 @@
       <c r="N40" s="73"/>
       <c r="O40" s="72">
         <f>SUM(O25:O39)</f>
-        <v>823.8</v>
+        <v>1055.8599999999999</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" ref="P40:Q40" si="5">SUM(P25:P39)</f>
@@ -22890,7 +22949,7 @@
       </c>
       <c r="Q40" s="72">
         <f t="shared" si="5"/>
-        <v>401.83</v>
+        <v>679.61</v>
       </c>
       <c r="R40" s="54"/>
       <c r="S40" s="54"/>
